--- a/AAII_Financials/Quarterly/FAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FAT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
   <si>
     <t>FAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,61 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43828</v>
+      </c>
+      <c r="E7" s="2">
         <v>43737</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43464</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43282</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43002</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -729,40 +729,43 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E8" s="3">
         <v>6500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4900</v>
       </c>
-      <c r="G8" s="3">
-        <v>5000</v>
-      </c>
       <c r="H8" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I8" s="3">
         <v>5900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2200</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
@@ -773,8 +776,11 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -817,8 +823,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,8 +870,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,8 +891,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -923,8 +936,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,25 +983,28 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E14" s="3">
         <v>-900</v>
-      </c>
-      <c r="E14" s="3">
-        <v>500</v>
       </c>
       <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3">
+        <v>500</v>
+      </c>
+      <c r="H14" s="3">
+        <v>100</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -993,8 +1012,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1011,34 +1030,37 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
         <v>300</v>
-      </c>
-      <c r="E15" s="3">
-        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
       </c>
       <c r="G15" s="3">
+        <v>100</v>
+      </c>
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
@@ -1055,8 +1077,11 @@
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,40 +1095,41 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E17" s="3">
         <v>4100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4600</v>
       </c>
-      <c r="G17" s="3">
-        <v>5300</v>
-      </c>
       <c r="H17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I17" s="3">
         <v>4300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
+      <c r="M17" s="3">
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
@@ -1114,40 +1140,43 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>2400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>300</v>
       </c>
-      <c r="G18" s="3">
-        <v>-300</v>
-      </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
+      <c r="M18" s="3">
+        <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
@@ -1158,8 +1187,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,40 +1208,41 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1220,35 +1253,38 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
         <v>2600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,38 +1300,41 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>1500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
       </c>
       <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1308,40 +1347,43 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>800</v>
+        <v>-700</v>
       </c>
       <c r="E23" s="3">
         <v>800</v>
       </c>
       <c r="F23" s="3">
+        <v>800</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
+      <c r="M23" s="3">
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
@@ -1352,40 +1394,43 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1396,8 +1441,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,40 +1488,43 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2700</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
+      <c r="M26" s="3">
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
@@ -1484,40 +1535,43 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2700</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
+      <c r="M27" s="3">
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
@@ -1528,8 +1582,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1629,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1598,12 +1658,12 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3">
         <v>-500</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1616,8 +1676,11 @@
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1723,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,40 +1770,43 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1748,40 +1817,43 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2700</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
+      <c r="M33" s="3">
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
@@ -1792,8 +1864,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,40 +1911,43 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2700</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
+      <c r="M35" s="3">
+        <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
@@ -1880,46 +1958,49 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43828</v>
+      </c>
+      <c r="E38" s="2">
         <v>43737</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43464</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43282</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43002</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1929,8 +2010,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2031,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,37 +2050,38 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
-      </c>
-      <c r="F41" s="3">
-        <v>700</v>
       </c>
       <c r="G41" s="3">
         <v>700</v>
       </c>
       <c r="H41" s="3">
+        <v>700</v>
+      </c>
+      <c r="I41" s="3">
         <v>1900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
@@ -2009,8 +2095,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2053,38 +2142,41 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E43" s="3">
         <v>5400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2189,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2141,37 +2236,40 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E45" s="3">
         <v>3200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>200</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -2185,38 +2283,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E46" s="3">
         <v>8900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,38 +2330,41 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E47" s="3">
         <v>24800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>22200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>18000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>15700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>15500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>9200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>9100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8300</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2273,22 +2377,25 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1100</v>
       </c>
       <c r="F48" s="3">
         <v>1100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+      <c r="G48" s="3">
+        <v>1100</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -2299,8 +2406,8 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2317,38 +2424,41 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E49" s="3">
         <v>42000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>42200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>33600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>33700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>30000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>18300</v>
       </c>
       <c r="J49" s="3">
         <v>18300</v>
       </c>
       <c r="K49" s="3">
+        <v>18300</v>
+      </c>
+      <c r="L49" s="3">
         <v>18400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2361,8 +2471,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2518,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,38 +2565,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E52" s="3">
         <v>2900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2200</v>
       </c>
       <c r="I52" s="3">
         <v>2200</v>
       </c>
       <c r="J52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K52" s="3">
         <v>2000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2493,8 +2612,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,38 +2659,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E54" s="3">
         <v>79600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>78200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>60400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>58000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>52600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>32500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>30900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2706,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2727,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,38 +2746,39 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E57" s="3">
         <v>7000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,32 +2791,35 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E58" s="3">
         <v>24400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>23800</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>15400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,38 +2838,41 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E59" s="3">
         <v>11300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7800</v>
-      </c>
-      <c r="H59" s="3">
-        <v>4800</v>
       </c>
       <c r="I59" s="3">
         <v>4800</v>
       </c>
       <c r="J59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K59" s="3">
         <v>6400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2749,38 +2885,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E60" s="3">
         <v>42700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>42000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>27600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6700</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,38 +2932,41 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E61" s="3">
         <v>19700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>19800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>34000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>14200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>29100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>17500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18100</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2837,8 +2979,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2846,29 +2991,29 @@
         <v>11000</v>
       </c>
       <c r="E62" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F62" s="3">
         <v>11600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2881,8 +3026,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3073,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3120,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,38 +3167,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>77200</v>
+      </c>
+      <c r="E66" s="3">
         <v>73400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>73300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>55200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>52200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>44100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>25900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>32200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>27200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3214,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3235,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3280,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3327,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3207,8 +3374,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,38 +3421,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-2400</v>
       </c>
       <c r="I72" s="3">
         <v>-2400</v>
       </c>
       <c r="J72" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-4000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-600</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,8 +3468,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3515,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3562,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,38 +3609,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E76" s="3">
         <v>6200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3656,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,46 +3703,49 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43828</v>
+      </c>
+      <c r="E80" s="2">
         <v>43737</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43464</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43282</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43002</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3564,40 +3755,43 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2700</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
+      <c r="M81" s="3">
+        <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
@@ -3608,8 +3802,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,8 +3823,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3635,25 +3833,25 @@
         <v>300</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
       </c>
       <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
         <v>200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3670,8 +3868,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +3915,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +3962,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4009,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4056,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,35 +4103,38 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E89" s="3">
         <v>2100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3934,8 +4150,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,8 +4171,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3970,17 +4190,17 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3996,8 +4216,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4263,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,35 +4310,38 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E94" s="3">
         <v>800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1500</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7700</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4128,8 +4357,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4378,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4161,14 +4394,14 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-400</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -4190,8 +4423,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4470,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4517,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,35 +4564,38 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
-        <v>-2800</v>
-      </c>
       <c r="H100" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I100" s="3">
         <v>7800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4366,8 +4611,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4410,34 +4658,37 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E102" s="3">
         <v>-200</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H102" s="3">
-        <v>900</v>
       </c>
       <c r="I102" s="3">
         <v>900</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+        <v>900</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
@@ -4452,6 +4703,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="92">
   <si>
     <t>FAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,121 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43919</v>
+      </c>
+      <c r="F7" s="2">
         <v>43828</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43737</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43464</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43282</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43191</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43002</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F8" s="3">
         <v>5300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>6500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>5900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2200</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
+      <c r="O8" s="3">
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
@@ -779,8 +787,14 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -826,8 +840,14 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,8 +893,14 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +918,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -939,8 +967,14 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,40 +1020,46 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>500</v>
+      </c>
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-900</v>
       </c>
-      <c r="F14" s="3">
-        <v>500</v>
-      </c>
-      <c r="G14" s="3">
-        <v>500</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1033,40 +1073,46 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
         <v>300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>100</v>
-      </c>
-      <c r="G15" s="3">
-        <v>100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>200</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
@@ -1080,8 +1126,14 @@
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,46 +1148,48 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F17" s="3">
         <v>5300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>4100</v>
       </c>
-      <c r="F17" s="3">
-        <v>5100</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I17" s="3">
         <v>4600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>4600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
+      <c r="O17" s="3">
+        <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
@@ -1143,46 +1197,52 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-6300</v>
       </c>
       <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>2400</v>
       </c>
-      <c r="F18" s="3">
-        <v>800</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
+      <c r="O18" s="3">
+        <v>0</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
@@ -1190,8 +1250,14 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,46 +1275,48 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
@@ -1256,41 +1324,47 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1303,44 +1377,50 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>2400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1350,46 +1430,52 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
+      <c r="O23" s="3">
+        <v>0</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
@@ -1397,46 +1483,52 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-800</v>
-      </c>
-      <c r="I24" s="3">
-        <v>200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
       </c>
       <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
+        <v>200</v>
+      </c>
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
@@ -1444,8 +1536,14 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,46 +1589,52 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2700</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
+      <c r="O26" s="3">
+        <v>0</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
@@ -1538,46 +1642,52 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2700</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
+      <c r="O27" s="3">
+        <v>0</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
@@ -1585,8 +1695,14 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1748,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1661,15 +1783,15 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3">
         <v>-500</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1679,8 +1801,14 @@
       <c r="Q29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1854,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,46 +1907,52 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
@@ -1820,46 +1960,52 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2700</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
+      <c r="O33" s="3">
+        <v>0</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
@@ -1867,8 +2013,14 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,46 +2066,52 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2700</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
+      <c r="O35" s="3">
+        <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
@@ -1961,60 +2119,72 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43919</v>
+      </c>
+      <c r="F38" s="2">
         <v>43828</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43737</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43464</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43282</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43191</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43002</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2202,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,43 +2223,45 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E41" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
@@ -2098,8 +2272,14 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2145,44 +2325,50 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F43" s="3">
         <v>4400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>5400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>3300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>2100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,8 +2378,14 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2239,44 +2431,50 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F45" s="3">
         <v>6100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>5600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,44 +2484,50 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F46" s="3">
         <v>10500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>8900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>9400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>5200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,44 +2537,50 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>33700</v>
+      </c>
+      <c r="F47" s="3">
         <v>27800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>24800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>22200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>18000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>15700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>15500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>9200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>9100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>8300</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2380,40 +2590,46 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>700</v>
+      </c>
+      <c r="F48" s="3">
         <v>900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2427,44 +2643,50 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>40400</v>
+      </c>
+      <c r="F49" s="3">
         <v>40600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>42000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>42200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>33600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>33700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>30000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>18300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>18300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>18400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2474,8 +2696,14 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2749,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,44 +2802,50 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F52" s="3">
         <v>2800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>5000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2615,8 +2855,14 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,44 +2908,50 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>90900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>92200</v>
+      </c>
+      <c r="F54" s="3">
         <v>82600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>79600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>78200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>60400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>58000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>52600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>32500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>30900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>29200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2961,14 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2986,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,8 +3007,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2759,31 +3021,31 @@
         <v>7000</v>
       </c>
       <c r="F57" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H57" s="3">
         <v>6500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>6300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>4400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>2400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2800</v>
       </c>
       <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
+      <c r="M57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N57" s="3">
+        <v>2400</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
@@ -2794,38 +3056,44 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>700</v>
+      </c>
+      <c r="F58" s="3">
         <v>24500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>24400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>23800</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
         <v>15400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,44 +3109,50 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F59" s="3">
         <v>13900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>11300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>11700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>5600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>7800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>6400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,44 +3162,50 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>20300</v>
+      </c>
+      <c r="F60" s="3">
         <v>45600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>42700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>42000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>11900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>27600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>8200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>10200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>9200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>6700</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,44 +3215,50 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>59400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>57900</v>
+      </c>
+      <c r="F61" s="3">
         <v>20500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>19700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>19800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>34000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>14200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>29100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>9900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>17500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>18100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -2982,44 +3268,50 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11000</v>
+        <v>13900</v>
       </c>
       <c r="E62" s="3">
         <v>11000</v>
       </c>
       <c r="F62" s="3">
+        <v>11000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>11000</v>
+      </c>
+      <c r="H62" s="3">
         <v>11600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>9300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>10400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>6800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>5800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>5400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,8 +3321,14 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3374,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3427,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,44 +3480,50 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>94500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>89200</v>
+      </c>
+      <c r="F66" s="3">
         <v>77200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>73400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>73300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>55200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>52200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>44100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>25900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>32200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>27200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,8 +3533,14 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3558,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3607,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3660,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3377,8 +3713,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,44 +3766,50 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-6000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-5100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-6200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-5700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-5000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-4000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3819,14 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3872,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3925,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,44 +3978,50 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F76" s="3">
         <v>5400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>6200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>5200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>5700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>8500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>6600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3659,8 +4031,14 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,98 +4084,110 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43919</v>
+      </c>
+      <c r="F80" s="2">
         <v>43828</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43737</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43464</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43282</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43191</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43002</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2700</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
+      <c r="O81" s="3">
+        <v>0</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
@@ -3805,8 +4195,14 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,8 +4220,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3833,31 +4231,31 @@
         <v>300</v>
       </c>
       <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
+        <v>300</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
       </c>
       <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -3871,8 +4269,14 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4322,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4375,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4428,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4481,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,41 +4534,47 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F89" s="3">
         <v>1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>2100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4153,8 +4587,14 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,8 +4612,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4193,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4201,11 +4643,11 @@
       <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-100</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -4219,8 +4661,14 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4714,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,41 +4767,47 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-9800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1500</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-7700</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4360,8 +4820,14 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4845,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4397,17 +4865,17 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-400</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -4426,8 +4894,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4947,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +5000,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,41 +5053,47 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F100" s="3">
         <v>8000</v>
       </c>
-      <c r="E100" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>800</v>
-      </c>
       <c r="G100" s="3">
-        <v>1000</v>
+        <v>-7700</v>
       </c>
       <c r="H100" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J100" s="3">
         <v>4000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>7800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-700</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4614,8 +5106,14 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4661,40 +5159,46 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
@@ -4706,6 +5210,12 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="92">
   <si>
     <t>FAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,73 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E7" s="2">
         <v>44010</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43919</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43828</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43737</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43464</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43282</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43191</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43002</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,49 +741,52 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E8" s="3">
         <v>3100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2200</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
+      <c r="P8" s="3">
+        <v>0</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
@@ -793,8 +797,11 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -846,8 +853,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,8 +909,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,8 +933,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -973,8 +987,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,43 +1043,46 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E14" s="3">
         <v>4200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3">
-        <v>-900</v>
-      </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1079,8 +1099,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1093,29 +1116,29 @@
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3">
         <v>300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
       </c>
       <c r="J15" s="3">
+        <v>100</v>
+      </c>
+      <c r="K15" s="3">
         <v>200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
@@ -1132,8 +1155,11 @@
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,49 +1176,50 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E17" s="3">
         <v>9400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>4100</v>
       </c>
       <c r="H17" s="3">
         <v>4100</v>
       </c>
       <c r="I17" s="3">
-        <v>4600</v>
+        <v>4100</v>
       </c>
       <c r="J17" s="3">
         <v>4600</v>
       </c>
       <c r="K17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="L17" s="3">
         <v>4300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2100</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
+      <c r="P17" s="3">
+        <v>0</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
@@ -1203,49 +1230,52 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
+      <c r="P18" s="3">
+        <v>0</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
@@ -1256,8 +1286,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,49 +1310,50 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1330,44 +1364,47 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,47 +1420,50 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
       </c>
       <c r="N22" s="3">
+        <v>200</v>
+      </c>
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1436,49 +1476,52 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>800</v>
       </c>
       <c r="H23" s="3">
         <v>800</v>
       </c>
       <c r="I23" s="3">
+        <v>800</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
+      <c r="P23" s="3">
+        <v>0</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
@@ -1489,49 +1532,52 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
@@ -1542,8 +1588,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,49 +1644,52 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2700</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
+      <c r="P26" s="3">
+        <v>0</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
@@ -1648,49 +1700,52 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2700</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
+      <c r="P27" s="3">
+        <v>0</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
@@ -1701,8 +1756,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1812,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1789,12 +1850,12 @@
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="3">
         <v>-500</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1807,8 +1868,11 @@
       <c r="S29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,49 +1980,52 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -1966,49 +2036,52 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2700</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
+      <c r="P33" s="3">
+        <v>0</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
@@ -2019,8 +2092,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,49 +2148,52 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2700</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
+      <c r="P35" s="3">
+        <v>0</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
@@ -2125,55 +2204,58 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E38" s="2">
         <v>44010</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43919</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43828</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43737</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43464</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43282</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43191</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43002</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2265,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,46 +2311,47 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4600</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
-      </c>
-      <c r="I41" s="3">
-        <v>700</v>
       </c>
       <c r="J41" s="3">
         <v>700</v>
       </c>
       <c r="K41" s="3">
+        <v>700</v>
+      </c>
+      <c r="L41" s="3">
         <v>1900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
@@ -2278,8 +2365,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2331,47 +2421,50 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E43" s="3">
         <v>2700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2384,8 +2477,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2437,46 +2533,49 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E45" s="3">
         <v>5700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
+      <c r="O45" s="3">
+        <v>200</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
@@ -2490,47 +2589,50 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E46" s="3">
         <v>10100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,47 +2645,50 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E47" s="3">
         <v>36300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>33700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>27800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>24800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>22200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>18000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>15700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>15500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8300</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2596,31 +2701,34 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E48" s="3">
         <v>2800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1100</v>
       </c>
       <c r="I48" s="3">
         <v>1100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>1100</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2631,8 +2739,8 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2649,47 +2757,50 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>72100</v>
+      </c>
+      <c r="E49" s="3">
         <v>37000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>40400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>40600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>42000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>42200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>33600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>33700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>30000</v>
-      </c>
-      <c r="L49" s="3">
-        <v>18300</v>
       </c>
       <c r="M49" s="3">
         <v>18300</v>
       </c>
       <c r="N49" s="3">
+        <v>18300</v>
+      </c>
+      <c r="O49" s="3">
         <v>18400</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2702,8 +2813,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,47 +2925,50 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E52" s="3">
         <v>4700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5000</v>
-      </c>
-      <c r="K52" s="3">
-        <v>2200</v>
       </c>
       <c r="L52" s="3">
         <v>2200</v>
       </c>
       <c r="M52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N52" s="3">
         <v>2000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +2981,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,47 +3037,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>149600</v>
+      </c>
+      <c r="E54" s="3">
         <v>90900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>92200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>82600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>79600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>78200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>60400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>58000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>52600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>32500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>30900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29200</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3093,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,47 +3139,48 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E57" s="3">
         <v>7200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3062,41 +3193,44 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="E58" s="3">
         <v>700</v>
       </c>
       <c r="F58" s="3">
+        <v>700</v>
+      </c>
+      <c r="G58" s="3">
         <v>24500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>24400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>23800</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>15400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3115,47 +3249,50 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E59" s="3">
         <v>13200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7800</v>
-      </c>
-      <c r="K59" s="3">
-        <v>4800</v>
       </c>
       <c r="L59" s="3">
         <v>4800</v>
       </c>
       <c r="M59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="N59" s="3">
         <v>6400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4300</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3168,47 +3305,50 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E60" s="3">
         <v>21200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>20300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>45600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>42700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>42000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>27600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6700</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,47 +3361,50 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>86400</v>
+      </c>
+      <c r="E61" s="3">
         <v>59400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>57900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>20500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>19700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>19800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>34000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>14200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>29100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>17500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>18100</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3274,16 +3417,19 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E62" s="3">
         <v>13900</v>
-      </c>
-      <c r="E62" s="3">
-        <v>11000</v>
       </c>
       <c r="F62" s="3">
         <v>11000</v>
@@ -3292,29 +3438,29 @@
         <v>11000</v>
       </c>
       <c r="H62" s="3">
+        <v>11000</v>
+      </c>
+      <c r="I62" s="3">
         <v>11600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2400</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3327,8 +3473,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,47 +3641,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>137100</v>
+      </c>
+      <c r="E66" s="3">
         <v>94500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>89200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>77200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>73400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>73300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>55200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>52200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>44100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>25900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>32200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>27200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3697,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,13 +3831,16 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -3719,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,47 +3943,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5000</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-2400</v>
       </c>
       <c r="L72" s="3">
         <v>-2400</v>
       </c>
       <c r="M72" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="N72" s="3">
         <v>-4000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-600</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3825,8 +3999,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,47 +4167,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4037,8 +4223,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,55 +4279,58 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E80" s="2">
         <v>44010</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43919</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43828</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43737</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43464</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43282</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43191</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43002</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,49 +4340,52 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2700</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
+      <c r="P81" s="3">
+        <v>0</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
@@ -4201,8 +4396,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,8 +4420,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4231,34 +4430,34 @@
         <v>300</v>
       </c>
       <c r="E83" s="3">
+        <v>300</v>
+      </c>
+      <c r="F83" s="3">
         <v>200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
       </c>
       <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
         <v>200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -4275,8 +4474,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,44 +4754,47 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4810,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,13 +4834,14 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4641,17 +4862,17 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4667,8 +4888,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,44 +5000,47 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1500</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7700</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4826,8 +5056,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4871,14 +5105,14 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-400</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -4900,8 +5134,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,44 +5302,47 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>12500</v>
       </c>
-      <c r="F100" s="3">
-        <v>8000</v>
-      </c>
       <c r="G100" s="3">
-        <v>-7700</v>
+        <v>700</v>
       </c>
       <c r="H100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I100" s="3">
         <v>3100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-700</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5112,8 +5358,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5165,43 +5414,46 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-200</v>
       </c>
       <c r="H102" s="3">
         <v>-200</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K102" s="3">
-        <v>900</v>
       </c>
       <c r="L102" s="3">
         <v>900</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
+        <v>900</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
@@ -5216,6 +5468,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="92">
   <si>
     <t>FAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,134 +665,141 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44283</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44192</v>
+      </c>
+      <c r="F7" s="2">
         <v>44101</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44010</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43919</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43828</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43737</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43464</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43282</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43002</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F8" s="3">
         <v>4100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>4400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>5300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>6500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2200</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
+      <c r="R8" s="3">
+        <v>0</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
@@ -800,8 +807,14 @@
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -856,8 +869,14 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,8 +931,14 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,8 +959,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -990,8 +1017,14 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1046,49 +1079,55 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F14" s="3">
         <v>-500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>4200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1102,8 +1141,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1119,32 +1164,32 @@
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
         <v>300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>200</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>3</v>
@@ -1158,8 +1203,14 @@
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1177,55 +1228,57 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>14700</v>
+      </c>
+      <c r="F17" s="3">
         <v>3600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>9400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5500</v>
       </c>
-      <c r="G17" s="3">
-        <v>5300</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J17" s="3">
         <v>4100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2100</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
+      <c r="R17" s="3">
+        <v>0</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
@@ -1233,55 +1286,61 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F18" s="3">
         <v>500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-6300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
+      <c r="R18" s="3">
+        <v>0</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
@@ -1289,8 +1348,14 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,55 +1376,57 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>900</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
@@ -1367,50 +1434,56 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-200</v>
+        <v>-2200</v>
       </c>
       <c r="E21" s="3">
-        <v>-4800</v>
+        <v>-9500</v>
       </c>
       <c r="F21" s="3">
-        <v>-800</v>
+        <v>-300</v>
       </c>
       <c r="G21" s="3">
-        <v>200</v>
+        <v>-5100</v>
       </c>
       <c r="H21" s="3">
-        <v>2600</v>
+        <v>-2400</v>
       </c>
       <c r="I21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K21" s="3">
         <v>1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1423,53 +1496,59 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>2400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1479,55 +1558,61 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-5300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
+      <c r="R23" s="3">
+        <v>0</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
@@ -1535,55 +1620,61 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-800</v>
-      </c>
-      <c r="L24" s="3">
-        <v>200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>200</v>
       </c>
       <c r="O24" s="3">
+        <v>100</v>
+      </c>
+      <c r="P24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
@@ -1591,8 +1682,14 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1647,55 +1744,61 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-4300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2700</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
+      <c r="R26" s="3">
+        <v>0</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
@@ -1703,55 +1806,61 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2700</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
+      <c r="R27" s="3">
+        <v>0</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
@@ -1759,8 +1868,14 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1815,31 +1930,37 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
@@ -1853,15 +1974,15 @@
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-500</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1871,8 +1992,14 @@
       <c r="T29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1927,8 +2054,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1983,55 +2116,61 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
@@ -2039,55 +2178,61 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2700</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
+      <c r="R33" s="3">
+        <v>0</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
@@ -2095,8 +2240,14 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2151,55 +2302,61 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2700</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
+      <c r="R35" s="3">
+        <v>0</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
@@ -2207,69 +2364,81 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44283</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44192</v>
+      </c>
+      <c r="F38" s="2">
         <v>44101</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44010</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43919</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43828</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43737</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43464</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43282</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43002</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2290,8 +2459,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2312,52 +2483,54 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F41" s="3">
         <v>12100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4600</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
@@ -2368,8 +2541,14 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2424,8 +2603,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2433,44 +2618,44 @@
         <v>4700</v>
       </c>
       <c r="E43" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F43" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G43" s="3">
         <v>2700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>4400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>5400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>3300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2480,8 +2665,14 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2536,53 +2727,59 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F45" s="3">
         <v>14400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>5700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>6700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>6100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>5600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,53 +2789,59 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>24400</v>
+      </c>
+      <c r="F46" s="3">
         <v>31200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>10100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>13900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>10500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>8900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>9400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,53 +2851,59 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F47" s="3">
         <v>40300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>36300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>33700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>27800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>24800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>22200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>18000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>15700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>15500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>9200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>9100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>8300</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,49 +2913,55 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F48" s="3">
         <v>4700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2760,53 +2975,59 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>58600</v>
+      </c>
+      <c r="F49" s="3">
         <v>72100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>37000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>40400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>40600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>42000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>42200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>33600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>33700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>30000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>18300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>18300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>18400</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2816,8 +3037,14 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2872,8 +3099,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2928,53 +3161,59 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>32000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>4700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>3200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>5000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>2000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1400</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2984,8 +3223,14 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3040,53 +3285,59 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>118100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>121100</v>
+      </c>
+      <c r="F54" s="3">
         <v>149600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>90900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>92200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>82600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>79600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>78200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>60400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>58000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>52600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>32500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>30900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>29200</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3347,14 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3118,8 +3375,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3140,19 +3399,21 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F57" s="3">
         <v>8200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>7200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>7000</v>
       </c>
       <c r="G57" s="3">
         <v>7200</v>
@@ -3161,31 +3422,31 @@
         <v>7000</v>
       </c>
       <c r="I57" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K57" s="3">
         <v>6500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>6300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>2400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>2800</v>
       </c>
       <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
+      <c r="P57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>2400</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
@@ -3196,47 +3457,53 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>19300</v>
+      </c>
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>24500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>24400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>23800</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
         <v>15400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3252,53 +3519,59 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>45200</v>
+      </c>
+      <c r="F59" s="3">
         <v>22100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>13200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>12600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>13900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>11300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>11700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>7800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>6400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4300</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3308,53 +3581,59 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>75900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>73200</v>
+      </c>
+      <c r="F60" s="3">
         <v>31900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>21200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>20300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>45600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>42700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>42000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>11900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>27600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>8200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>10200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>9200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6700</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3364,53 +3643,59 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>73900</v>
+      </c>
+      <c r="F61" s="3">
         <v>86400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>59400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>57900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>20500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>19700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>19800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>34000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>14200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>29100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>9900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>17500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>18100</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3420,53 +3705,59 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F62" s="3">
         <v>18900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>13900</v>
-      </c>
-      <c r="F62" s="3">
-        <v>11000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>11000</v>
       </c>
       <c r="H62" s="3">
         <v>11000</v>
       </c>
       <c r="I62" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K62" s="3">
         <v>11600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>9300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>10400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>6800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>5800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>5400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2400</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3476,8 +3767,14 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3532,8 +3829,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3588,8 +3891,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3644,53 +3953,59 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>163700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>163000</v>
+      </c>
+      <c r="F66" s="3">
         <v>137100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>94500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>89200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>77200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>73400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>73300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>55200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>52200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>44100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>25900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>32200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>27200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3700,8 +4015,14 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3722,8 +4043,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3778,8 +4101,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3834,20 +4163,26 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E70" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F70" s="3">
         <v>13000</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -3890,8 +4225,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3946,53 +4287,59 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-13200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-12700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-8400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-6000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-5100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-6200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-5700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-5000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-2400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-4000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-600</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4002,8 +4349,14 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4411,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4114,8 +4473,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4170,53 +4535,59 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-66800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>5400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>6200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>5700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>8500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4226,8 +4597,14 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4282,116 +4659,128 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44283</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44192</v>
+      </c>
+      <c r="F80" s="2">
         <v>44101</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44010</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43919</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43828</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43737</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43464</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43282</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43002</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2700</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
+      <c r="R81" s="3">
+        <v>0</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
@@ -4399,8 +4788,14 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4421,49 +4816,51 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>400</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
-      </c>
-      <c r="E83" s="3">
-        <v>300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
       </c>
       <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
+        <v>300</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
       <c r="M83" s="3">
+        <v>200</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4477,8 +4874,14 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4533,8 +4936,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4589,8 +4998,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4645,8 +5060,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4701,8 +5122,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4757,50 +5184,56 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>700</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4813,8 +5246,14 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4835,19 +5274,21 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4865,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4873,11 +5314,11 @@
       <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-100</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
@@ -4891,8 +5332,14 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4947,8 +5394,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5003,50 +5456,56 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-26800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-3400</v>
       </c>
-      <c r="G94" s="3">
-        <v>-9800</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="J94" s="3">
         <v>800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1500</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-7700</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5059,8 +5518,14 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5081,16 +5546,18 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -5108,17 +5575,17 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-400</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5137,8 +5604,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5193,8 +5666,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5249,8 +5728,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5305,50 +5790,56 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F100" s="3">
         <v>42100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>12500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>3100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>3300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>4000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>7800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>2200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-700</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5361,8 +5852,14 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5417,49 +5914,55 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F102" s="3">
         <v>10800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>5700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>900</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
+      <c r="P102" s="3">
+        <v>0</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
@@ -5471,6 +5974,12 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="92">
   <si>
     <t>FAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,84 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44374</v>
+      </c>
+      <c r="E7" s="2">
         <v>44283</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44192</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44101</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44010</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43919</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43828</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43737</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43464</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43282</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43191</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43002</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
@@ -751,58 +752,61 @@
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E8" s="3">
         <v>6600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2200</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
+      <c r="S8" s="3">
+        <v>0</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
@@ -813,8 +817,11 @@
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -875,8 +882,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +947,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -961,8 +974,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1023,8 +1037,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1085,52 +1102,55 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>7300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-900</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1147,8 +1167,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1170,29 +1193,29 @@
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
         <v>300</v>
-      </c>
-      <c r="K15" s="3">
-        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
       </c>
       <c r="M15" s="3">
+        <v>100</v>
+      </c>
+      <c r="N15" s="3">
         <v>200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>3</v>
@@ -1209,8 +1232,11 @@
       <c r="V15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1230,58 +1256,59 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E17" s="3">
         <v>6800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>5500</v>
       </c>
       <c r="I17" s="3">
         <v>5500</v>
       </c>
       <c r="J17" s="3">
-        <v>4100</v>
+        <v>5500</v>
       </c>
       <c r="K17" s="3">
         <v>4100</v>
       </c>
       <c r="L17" s="3">
-        <v>4600</v>
+        <v>4100</v>
       </c>
       <c r="M17" s="3">
         <v>4600</v>
       </c>
       <c r="N17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="O17" s="3">
         <v>4300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2100</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
+      <c r="S17" s="3">
+        <v>0</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
@@ -1292,58 +1319,61 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-8200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
+      <c r="S18" s="3">
+        <v>0</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
@@ -1354,8 +1384,11 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1378,58 +1411,59 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
@@ -1440,53 +1474,56 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-9500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>900</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1502,8 +1539,11 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1529,29 +1569,29 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>200</v>
       </c>
       <c r="Q22" s="3">
+        <v>200</v>
+      </c>
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1564,58 +1604,61 @@
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>800</v>
       </c>
       <c r="K23" s="3">
         <v>800</v>
       </c>
       <c r="L23" s="3">
+        <v>800</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
+      <c r="S23" s="3">
+        <v>0</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
@@ -1626,58 +1669,61 @@
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2300</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-1100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
@@ -1688,8 +1734,11 @@
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1750,58 +1799,61 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2700</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
+      <c r="S26" s="3">
+        <v>0</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
@@ -1812,58 +1864,61 @@
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2700</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
+      <c r="S27" s="3">
+        <v>0</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
@@ -1874,8 +1929,11 @@
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,8 +1994,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1962,8 +2023,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>3</v>
@@ -1980,12 +2041,12 @@
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29" s="3">
         <v>-500</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1998,8 +2059,11 @@
       <c r="V29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2060,8 +2124,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2122,58 +2189,61 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E32" s="3">
         <v>2300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
@@ -2184,58 +2254,61 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2700</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
+      <c r="S33" s="3">
+        <v>0</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
@@ -2246,8 +2319,11 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2308,58 +2384,61 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2700</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
+      <c r="S35" s="3">
+        <v>0</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
@@ -2370,64 +2449,67 @@
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44374</v>
+      </c>
+      <c r="E38" s="2">
         <v>44283</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44192</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44101</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44010</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43919</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43828</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43737</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43464</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43282</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43191</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43002</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2519,11 @@
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2461,8 +2546,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2485,55 +2571,56 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4600</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
-      </c>
-      <c r="L41" s="3">
-        <v>700</v>
       </c>
       <c r="M41" s="3">
         <v>700</v>
       </c>
       <c r="N41" s="3">
+        <v>700</v>
+      </c>
+      <c r="O41" s="3">
         <v>1900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
+      <c r="R41" s="3">
+        <v>0</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
@@ -2547,8 +2634,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2609,56 +2699,59 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E43" s="3">
         <v>4700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1000</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2671,8 +2764,11 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2733,55 +2829,58 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E45" s="3">
         <v>15900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
-      </c>
-      <c r="P45" s="3">
-        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
+      <c r="R45" s="3">
+        <v>200</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
@@ -2795,56 +2894,59 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>68200</v>
+      </c>
+      <c r="E46" s="3">
         <v>21700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>24400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>31200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1200</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2857,8 +2959,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2869,44 +2974,44 @@
         <v>1600</v>
       </c>
       <c r="F47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G47" s="3">
         <v>40300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>36300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>33700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>27800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>24800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>22200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>18000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>15700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>15500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>9100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>8300</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2919,40 +3024,43 @@
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E48" s="3">
         <v>4100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1100</v>
       </c>
       <c r="L48" s="3">
         <v>1100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
+      <c r="M48" s="3">
+        <v>1100</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
@@ -2963,8 +3071,8 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2981,56 +3089,59 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E49" s="3">
         <v>57000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>58600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>72100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>37000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>40400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>40600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>42000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>42200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>33600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>33700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>30000</v>
-      </c>
-      <c r="O49" s="3">
-        <v>18300</v>
       </c>
       <c r="P49" s="3">
         <v>18300</v>
       </c>
       <c r="Q49" s="3">
+        <v>18300</v>
+      </c>
+      <c r="R49" s="3">
         <v>18400</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3043,8 +3154,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3105,8 +3219,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3167,56 +3284,59 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E52" s="3">
         <v>33600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>32000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5000</v>
-      </c>
-      <c r="N52" s="3">
-        <v>2200</v>
       </c>
       <c r="O52" s="3">
         <v>2200</v>
       </c>
       <c r="P52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q52" s="3">
         <v>2000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1400</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3229,8 +3349,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3291,56 +3414,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>169200</v>
+      </c>
+      <c r="E54" s="3">
         <v>118100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>121100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>149600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>90900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>92200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>82600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>79600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>78200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>60400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>58000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>52600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>32500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>30900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>29200</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,8 +3479,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3377,8 +3506,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3401,56 +3531,57 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E57" s="3">
         <v>8700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2400</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3463,50 +3594,53 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
         <v>22100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>19300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>700</v>
       </c>
       <c r="H58" s="3">
         <v>700</v>
       </c>
       <c r="I58" s="3">
+        <v>700</v>
+      </c>
+      <c r="J58" s="3">
         <v>24500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>24400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>23800</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
         <v>15400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3525,56 +3659,59 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E59" s="3">
         <v>45100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>45200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>22100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7800</v>
-      </c>
-      <c r="N59" s="3">
-        <v>4800</v>
       </c>
       <c r="O59" s="3">
         <v>4800</v>
       </c>
       <c r="P59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="Q59" s="3">
         <v>6400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4300</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3587,56 +3724,59 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E60" s="3">
         <v>75900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>73200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>31900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>21200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>45600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>42700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>42000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>27600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6700</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,56 +3789,59 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>146100</v>
+      </c>
+      <c r="E61" s="3">
         <v>71500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>73900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>86400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>59400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>57900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>20500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>19700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>34000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>29100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>18100</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3711,25 +3854,28 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E62" s="3">
         <v>16300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13900</v>
-      </c>
-      <c r="H62" s="3">
-        <v>11000</v>
       </c>
       <c r="I62" s="3">
         <v>11000</v>
@@ -3738,29 +3884,29 @@
         <v>11000</v>
       </c>
       <c r="K62" s="3">
+        <v>11000</v>
+      </c>
+      <c r="L62" s="3">
         <v>11600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2400</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3773,8 +3919,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3835,8 +3984,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3897,8 +4049,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3959,56 +4114,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>214400</v>
+      </c>
+      <c r="E66" s="3">
         <v>163700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>163000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>137100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>94500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>89200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>77200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>73400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>73300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>55200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>52200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>44100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>25900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>32200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>27200</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4021,8 +4179,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4045,8 +4206,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4107,8 +4269,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4169,23 +4334,26 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E70" s="3">
         <v>21300</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>21800</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>13000</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -4231,8 +4399,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4293,56 +4464,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-23300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-20900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5000</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-2400</v>
       </c>
       <c r="O72" s="3">
         <v>-2400</v>
       </c>
       <c r="P72" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-600</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4355,8 +4529,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4417,8 +4594,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4479,8 +4659,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4541,56 +4724,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-74300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-66800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-63700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4603,8 +4789,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4665,64 +4854,67 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44374</v>
+      </c>
+      <c r="E80" s="2">
         <v>44283</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44192</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44101</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44010</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43919</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43828</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43737</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43464</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43282</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43191</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43002</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4732,58 +4924,61 @@
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2700</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
+      <c r="S81" s="3">
+        <v>0</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
@@ -4794,8 +4989,11 @@
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4818,8 +5016,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4830,40 +5029,40 @@
         <v>400</v>
       </c>
       <c r="F83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
       </c>
       <c r="H83" s="3">
+        <v>300</v>
+      </c>
+      <c r="I83" s="3">
         <v>200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
       <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
         <v>200</v>
-      </c>
-      <c r="N83" s="3">
-        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
@@ -4880,8 +5079,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4942,8 +5144,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5004,8 +5209,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5066,8 +5274,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5128,8 +5339,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5190,53 +5404,56 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>700</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5252,8 +5469,11 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5276,22 +5496,23 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -5312,17 +5533,17 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5338,8 +5559,11 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5400,8 +5624,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5462,53 +5689,56 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-26800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1500</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7700</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5524,8 +5754,11 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5548,20 +5781,21 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-100</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -5581,14 +5815,14 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-400</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -5610,8 +5844,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5672,8 +5909,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5734,8 +5974,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5796,53 +6039,56 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>42100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>12500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>7800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-700</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5858,8 +6104,11 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5920,52 +6169,55 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>10800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-200</v>
       </c>
       <c r="K102" s="3">
         <v>-200</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N102" s="3">
-        <v>900</v>
       </c>
       <c r="O102" s="3">
         <v>900</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
+        <v>900</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
@@ -5980,6 +6232,9 @@
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="92">
   <si>
     <t>FAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,88 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44465</v>
+      </c>
+      <c r="E7" s="2">
         <v>44374</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44283</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44192</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44101</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44010</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43919</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43828</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43737</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43464</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43282</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43191</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43002</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
@@ -755,61 +756,64 @@
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E8" s="3">
         <v>8300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2200</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
+      <c r="T8" s="3">
+        <v>0</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
@@ -820,8 +824,11 @@
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -885,8 +892,11 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +960,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +988,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1040,8 +1054,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1105,55 +1122,58 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E14" s="3">
         <v>5500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>7300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-900</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1170,8 +1190,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1196,29 +1219,29 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3">
         <v>300</v>
-      </c>
-      <c r="L15" s="3">
-        <v>100</v>
       </c>
       <c r="M15" s="3">
         <v>100</v>
       </c>
       <c r="N15" s="3">
+        <v>100</v>
+      </c>
+      <c r="O15" s="3">
         <v>200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>3</v>
@@ -1235,8 +1258,11 @@
       <c r="W15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1257,61 +1283,62 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E17" s="3">
         <v>12900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>5500</v>
       </c>
       <c r="J17" s="3">
         <v>5500</v>
       </c>
       <c r="K17" s="3">
-        <v>4100</v>
+        <v>5500</v>
       </c>
       <c r="L17" s="3">
         <v>4100</v>
       </c>
       <c r="M17" s="3">
-        <v>4600</v>
+        <v>4100</v>
       </c>
       <c r="N17" s="3">
         <v>4600</v>
       </c>
       <c r="O17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="P17" s="3">
         <v>4300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2100</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
+      <c r="T17" s="3">
+        <v>0</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
@@ -1322,61 +1349,64 @@
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
+      <c r="T18" s="3">
+        <v>0</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
@@ -1387,8 +1417,11 @@
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1412,61 +1445,62 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
+      <c r="T20" s="3">
+        <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
@@ -1477,56 +1511,59 @@
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-9500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>900</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1542,8 +1579,11 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1572,29 +1612,29 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>200</v>
       </c>
       <c r="R22" s="3">
+        <v>200</v>
+      </c>
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1607,61 +1647,64 @@
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
-      </c>
-      <c r="K23" s="3">
-        <v>800</v>
       </c>
       <c r="L23" s="3">
         <v>800</v>
       </c>
       <c r="M23" s="3">
+        <v>800</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
+      <c r="T23" s="3">
+        <v>0</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
@@ -1672,61 +1715,64 @@
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
+      <c r="T24" s="3">
+        <v>0</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>3</v>
@@ -1737,8 +1783,11 @@
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1802,61 +1851,64 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2700</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
+      <c r="T26" s="3">
+        <v>0</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
@@ -1867,61 +1919,64 @@
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2700</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
+      <c r="T27" s="3">
+        <v>0</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
@@ -1932,8 +1987,11 @@
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1997,8 +2055,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2026,8 +2087,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
@@ -2044,12 +2105,12 @@
       <c r="Q29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S29" s="3">
         <v>-500</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2062,8 +2123,11 @@
       <c r="W29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2127,8 +2191,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2192,61 +2259,64 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E32" s="3">
         <v>3300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
+      <c r="T32" s="3">
+        <v>0</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
@@ -2257,61 +2327,64 @@
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2700</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
+      <c r="T33" s="3">
+        <v>0</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
@@ -2322,8 +2395,11 @@
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2387,61 +2463,64 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2700</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
+      <c r="T35" s="3">
+        <v>0</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
@@ -2452,67 +2531,70 @@
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44465</v>
+      </c>
+      <c r="E38" s="2">
         <v>44374</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44283</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44192</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44101</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44010</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43919</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43828</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43737</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43464</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43282</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43191</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43002</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2522,8 +2604,11 @@
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2547,8 +2632,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2572,58 +2658,59 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E41" s="3">
         <v>48100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4600</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
-      </c>
-      <c r="M41" s="3">
-        <v>700</v>
       </c>
       <c r="N41" s="3">
         <v>700</v>
       </c>
       <c r="O41" s="3">
+        <v>700</v>
+      </c>
+      <c r="P41" s="3">
         <v>1900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1000</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
+      <c r="S41" s="3">
+        <v>0</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
@@ -2637,8 +2724,11 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2702,59 +2792,62 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E43" s="3">
         <v>5800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1000</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2767,8 +2860,11 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2832,58 +2928,61 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E45" s="3">
         <v>14300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
+      <c r="S45" s="3">
+        <v>200</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
@@ -2897,59 +2996,62 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E46" s="3">
         <v>68200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>24400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>31200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1200</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,13 +3064,16 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="E47" s="3">
         <v>1600</v>
@@ -2977,44 +3082,44 @@
         <v>1600</v>
       </c>
       <c r="G47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H47" s="3">
         <v>40300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>36300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>33700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>27800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>24800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>22200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>18000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>15700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>15500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>9200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>9100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>8300</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3027,43 +3132,46 @@
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E48" s="3">
         <v>4900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1100</v>
       </c>
       <c r="M48" s="3">
         <v>1100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
+      <c r="N48" s="3">
+        <v>1100</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
@@ -3074,8 +3182,8 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3092,59 +3200,62 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>508500</v>
+      </c>
+      <c r="E49" s="3">
         <v>56700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>57000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>58600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>72100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>37000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>40400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>40600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>42000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>42200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>33600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>33700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>30000</v>
-      </c>
-      <c r="P49" s="3">
-        <v>18300</v>
       </c>
       <c r="Q49" s="3">
         <v>18300</v>
       </c>
       <c r="R49" s="3">
+        <v>18300</v>
+      </c>
+      <c r="S49" s="3">
         <v>18400</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3157,8 +3268,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3222,8 +3336,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3287,59 +3404,62 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E52" s="3">
         <v>37800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>33600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>32000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5000</v>
-      </c>
-      <c r="O52" s="3">
-        <v>2200</v>
       </c>
       <c r="P52" s="3">
         <v>2200</v>
       </c>
       <c r="Q52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R52" s="3">
         <v>2000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1400</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3352,8 +3472,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3417,59 +3540,62 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>619800</v>
+      </c>
+      <c r="E54" s="3">
         <v>169200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>118100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>121100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>149600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>90900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>92200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>82600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>79600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>78200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>60400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>58000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>52600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>32500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>30900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>29200</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3482,8 +3608,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3507,8 +3636,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3532,59 +3662,60 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E57" s="3">
         <v>8400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2400</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3597,53 +3728,56 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>22100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>19300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>700</v>
       </c>
       <c r="I58" s="3">
         <v>700</v>
       </c>
       <c r="J58" s="3">
+        <v>700</v>
+      </c>
+      <c r="K58" s="3">
         <v>24500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>24400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>23800</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3">
         <v>15400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,59 +3796,62 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E59" s="3">
         <v>43800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>45100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>45200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>22100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7800</v>
-      </c>
-      <c r="O59" s="3">
-        <v>4800</v>
       </c>
       <c r="P59" s="3">
         <v>4800</v>
       </c>
       <c r="Q59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="R59" s="3">
         <v>6400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4300</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3727,59 +3864,62 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E60" s="3">
         <v>53200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>75900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>73200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>31900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>21200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>45600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>42700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>42000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>27600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6700</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3792,59 +3932,62 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>485500</v>
+      </c>
+      <c r="E61" s="3">
         <v>146100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>71500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>73900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>86400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>59400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>57900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>20500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>34000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>29100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>18100</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3857,28 +4000,31 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E62" s="3">
         <v>15000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13900</v>
-      </c>
-      <c r="I62" s="3">
-        <v>11000</v>
       </c>
       <c r="J62" s="3">
         <v>11000</v>
@@ -3887,29 +4033,29 @@
         <v>11000</v>
       </c>
       <c r="L62" s="3">
+        <v>11000</v>
+      </c>
+      <c r="M62" s="3">
         <v>11600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2400</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3922,8 +4068,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3987,8 +4136,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4052,8 +4204,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4117,59 +4272,62 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>571900</v>
+      </c>
+      <c r="E66" s="3">
         <v>214400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>163700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>163000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>137100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>94500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>89200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>77200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>73400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>73300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>55200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>52200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>44100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>25900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>32200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>27200</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4182,8 +4340,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4207,8 +4368,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4272,8 +4434,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4337,26 +4502,29 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>104700</v>
+      </c>
+      <c r="E70" s="3">
         <v>29100</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>21300</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>21800</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>13000</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -4402,8 +4570,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4467,59 +4638,62 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-29300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-23300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5000</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-2400</v>
       </c>
       <c r="P72" s="3">
         <v>-2400</v>
       </c>
       <c r="Q72" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="R72" s="3">
         <v>-4000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-600</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4532,8 +4706,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4597,8 +4774,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4662,8 +4842,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4727,59 +4910,62 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-56800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-74300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-66800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-63700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2000</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4792,8 +4978,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4857,67 +5046,70 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44465</v>
+      </c>
+      <c r="E80" s="2">
         <v>44374</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44283</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44192</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44101</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44010</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43919</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43828</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43737</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43464</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43282</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43191</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43002</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4927,61 +5119,64 @@
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2700</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
+      <c r="T81" s="3">
+        <v>0</v>
       </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
@@ -4992,8 +5187,11 @@
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5017,13 +5215,14 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>2400</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
@@ -5032,40 +5231,40 @@
         <v>400</v>
       </c>
       <c r="G83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
       </c>
       <c r="I83" s="3">
+        <v>300</v>
+      </c>
+      <c r="J83" s="3">
         <v>200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>300</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
       </c>
       <c r="N83" s="3">
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
         <v>200</v>
-      </c>
-      <c r="O83" s="3">
-        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
@@ -5082,8 +5281,11 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5147,8 +5349,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5212,8 +5417,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5277,8 +5485,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5342,8 +5553,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5407,56 +5621,59 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>700</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5472,8 +5689,11 @@
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5497,25 +5717,26 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-600</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-200</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -5536,17 +5757,17 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5562,8 +5783,11 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5627,8 +5851,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5692,56 +5919,59 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-346400</v>
+      </c>
+      <c r="E94" s="3">
         <v>800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-26800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1500</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7700</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5757,8 +5987,11 @@
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5782,23 +6015,24 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-100</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -5818,14 +6052,14 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-400</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -5847,8 +6081,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5912,8 +6149,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5977,8 +6217,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6042,56 +6285,59 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>335000</v>
+      </c>
+      <c r="E100" s="3">
         <v>52000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>42100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>12500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>7800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-700</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6107,8 +6353,11 @@
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6172,55 +6421,58 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E102" s="3">
         <v>49100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>10800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-200</v>
       </c>
       <c r="L102" s="3">
         <v>-200</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O102" s="3">
-        <v>900</v>
       </c>
       <c r="P102" s="3">
         <v>900</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
+        <v>900</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
       </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
@@ -6235,6 +6487,9 @@
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="92">
   <si>
     <t>FAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,161 +665,168 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44647</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44556</v>
+      </c>
+      <c r="F7" s="2">
         <v>44465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44374</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44283</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44192</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44101</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44010</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43919</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43828</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43737</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43464</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43282</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43191</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43002</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>97400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>74200</v>
+      </c>
+      <c r="F8" s="3">
         <v>29800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>8300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>6600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>6500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>6500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>5900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>3600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2200</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
+      <c r="V8" s="3">
+        <v>0</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>3</v>
@@ -827,8 +834,14 @@
       <c r="X8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -895,8 +908,14 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +982,14 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -989,8 +1014,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1057,8 +1084,14 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1125,61 +1158,67 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F14" s="3">
         <v>1800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>5500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>7300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>4200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-900</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1193,8 +1232,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1222,32 +1267,32 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3">
         <v>300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>100</v>
-      </c>
-      <c r="N15" s="3">
-        <v>100</v>
-      </c>
-      <c r="O15" s="3">
-        <v>200</v>
       </c>
       <c r="P15" s="3">
         <v>100</v>
       </c>
       <c r="Q15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>3</v>
@@ -1261,8 +1306,14 @@
       <c r="X15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1284,67 +1335,69 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>96900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>79600</v>
+      </c>
+      <c r="F17" s="3">
         <v>27600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>12900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>6800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>14700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>9400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2100</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
+      <c r="V17" s="3">
+        <v>0</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
@@ -1352,67 +1405,73 @@
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F18" s="3">
         <v>2200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-4600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-8200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-6300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
+      <c r="V18" s="3">
+        <v>0</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
@@ -1420,8 +1479,14 @@
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1446,67 +1511,69 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-7000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-2300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-500</v>
       </c>
       <c r="L20" s="3">
         <v>-1600</v>
       </c>
       <c r="M20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
+      <c r="V20" s="3">
+        <v>0</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
@@ -1514,62 +1581,68 @@
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-7500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-9500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-5100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>900</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1582,8 +1655,14 @@
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1615,32 +1694,32 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>2400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>1000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,67 +1729,73 @@
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-7900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-10000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-5300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
+      <c r="V23" s="3">
+        <v>0</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
@@ -1718,67 +1803,73 @@
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-2300</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-800</v>
-      </c>
-      <c r="P24" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>200</v>
       </c>
       <c r="S24" s="3">
+        <v>100</v>
+      </c>
+      <c r="T24" s="3">
+        <v>200</v>
+      </c>
+      <c r="U24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
+      <c r="V24" s="3">
+        <v>0</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>3</v>
@@ -1786,8 +1877,14 @@
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1854,67 +1951,73 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-5900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-7700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2700</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
+      <c r="V26" s="3">
+        <v>0</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
@@ -1922,67 +2025,73 @@
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-5900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-7700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2700</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
+      <c r="V27" s="3">
+        <v>0</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
@@ -1990,8 +2099,14 @@
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2058,8 +2173,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2090,11 +2211,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>3</v>
@@ -2108,15 +2229,15 @@
       <c r="R29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U29" s="3">
         <v>-500</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2247,14 @@
       <c r="X29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2194,8 +2321,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2262,67 +2395,73 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>14400</v>
+      </c>
+      <c r="F32" s="3">
         <v>7000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>2300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K32" s="3">
-        <v>500</v>
       </c>
       <c r="L32" s="3">
         <v>1600</v>
       </c>
       <c r="M32" s="3">
+        <v>500</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
+      <c r="V32" s="3">
+        <v>0</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
@@ -2330,67 +2469,73 @@
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-5900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-7700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2700</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
+      <c r="V33" s="3">
+        <v>0</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
@@ -2398,8 +2543,14 @@
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2466,67 +2617,73 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-5900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-7700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2700</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
+      <c r="V35" s="3">
+        <v>0</v>
       </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
@@ -2534,81 +2691,93 @@
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44647</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44556</v>
+      </c>
+      <c r="F38" s="2">
         <v>44465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44374</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44283</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44192</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44101</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44010</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43919</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43828</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43737</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43464</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43282</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43191</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43002</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2633,8 +2802,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2659,64 +2830,66 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>56700</v>
+      </c>
+      <c r="F41" s="3">
         <v>23600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>48100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>12100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4600</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1000</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
@@ -2727,8 +2900,14 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2795,65 +2974,71 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F43" s="3">
         <v>14500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>5800</v>
-      </c>
-      <c r="F43" s="3">
-        <v>4700</v>
-      </c>
-      <c r="G43" s="3">
-        <v>4400</v>
       </c>
       <c r="H43" s="3">
         <v>4700</v>
       </c>
       <c r="I43" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K43" s="3">
         <v>2700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>4400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>5400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1000</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +3048,14 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2931,65 +3122,71 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>42100</v>
+      </c>
+      <c r="F45" s="3">
         <v>25400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>14300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>15900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>16100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>14400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>5700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>6700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>6100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>5600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2999,65 +3196,71 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>97200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>118500</v>
+      </c>
+      <c r="F46" s="3">
         <v>63500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>68200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>21700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>24400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>31200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>10100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>13900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>10500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>8900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>9400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>5200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1200</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3067,65 +3270,71 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F47" s="3">
         <v>2100</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1600</v>
       </c>
       <c r="G47" s="3">
         <v>1600</v>
       </c>
       <c r="H47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J47" s="3">
         <v>40300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>36300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>33700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>27800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>24800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>22200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>18000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>15700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>15500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>9200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>9100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>8300</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3135,61 +3344,67 @@
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>178200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>179100</v>
+      </c>
+      <c r="F48" s="3">
         <v>22800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>4700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3203,65 +3418,71 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>944200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>947900</v>
+      </c>
+      <c r="F49" s="3">
         <v>508500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>56700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>57000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>58600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>72100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>37000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>40400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>40600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>42000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>42200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>33600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>33700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>30000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>18300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>18300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>18400</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3271,8 +3492,14 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3339,8 +3566,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3407,65 +3640,71 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F52" s="3">
         <v>22900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>37800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>33600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>32000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>4700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>3500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>3200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>2600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>5000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>2200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>2000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1400</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3475,8 +3714,14 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3543,65 +3788,71 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1244800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1270000</v>
+      </c>
+      <c r="F54" s="3">
         <v>619800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>169200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>118100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>121100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>149600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>90900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>92200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>82600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>79600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>78200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>60400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>58000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>52600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>32500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>30900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>29200</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3611,8 +3862,14 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3637,8 +3894,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3663,31 +3922,33 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>27500</v>
+      </c>
+      <c r="F57" s="3">
         <v>12900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>8400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>8700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>8600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>8200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>7200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>7000</v>
       </c>
       <c r="K57" s="3">
         <v>7200</v>
@@ -3696,31 +3957,31 @@
         <v>7000</v>
       </c>
       <c r="M57" s="3">
+        <v>7200</v>
+      </c>
+      <c r="N57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="O57" s="3">
         <v>6500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>6300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>4400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3400</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>2400</v>
-      </c>
-      <c r="R57" s="3">
-        <v>2800</v>
       </c>
       <c r="S57" s="3">
         <v>2400</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
+      <c r="T57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="U57" s="3">
+        <v>2400</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
@@ -3731,59 +3992,65 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>22100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>19300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>24500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>24400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>23800</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3">
         <v>15400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>3000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3799,65 +4066,71 @@
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>236400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>169200</v>
+      </c>
+      <c r="F59" s="3">
         <v>48800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>43800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>45100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>45200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>22100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>13200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>12600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>13900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>11300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>11700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>5600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>7800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>4800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>6400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>4300</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3867,65 +4140,71 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>261900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>198500</v>
+      </c>
+      <c r="F60" s="3">
         <v>62200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>53200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>75900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>73200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>31900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>21200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>20300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>45600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>42700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>42000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>11900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>27600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>8200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>10200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>9200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>6700</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3935,65 +4214,71 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>907100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>904300</v>
+      </c>
+      <c r="F61" s="3">
         <v>485500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>146100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>71500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>73900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>86400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>59400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>57900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>20500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>19700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>19800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>34000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>14200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>29100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>9900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>17500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>18100</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4003,65 +4288,71 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>126900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>124500</v>
+      </c>
+      <c r="F62" s="3">
         <v>24100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>15000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>16300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>16000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>18900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>13900</v>
-      </c>
-      <c r="J62" s="3">
-        <v>11000</v>
-      </c>
-      <c r="K62" s="3">
-        <v>11000</v>
       </c>
       <c r="L62" s="3">
         <v>11000</v>
       </c>
       <c r="M62" s="3">
+        <v>11000</v>
+      </c>
+      <c r="N62" s="3">
+        <v>11000</v>
+      </c>
+      <c r="O62" s="3">
         <v>11600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>9300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>10400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>6800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>5800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>5400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>2400</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4071,8 +4362,14 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4139,8 +4436,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4207,8 +4510,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4275,65 +4584,71 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1295900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1227200</v>
+      </c>
+      <c r="F66" s="3">
         <v>571900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>214400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>163700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>163000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>137100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>94500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>89200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>77200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>73400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>73300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>55200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>52200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>44100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>25900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>32200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>27200</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4343,8 +4658,14 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4369,8 +4690,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4437,8 +4760,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4505,32 +4834,38 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E70" s="3">
+        <v>120100</v>
+      </c>
+      <c r="F70" s="3">
         <v>104700</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>29100</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>21300</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>21800</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>13000</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -4573,8 +4908,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4641,65 +4982,71 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-76200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-52500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-32900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-29300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-23300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-20900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-13200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-12700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-6000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-5100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-6200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-5700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-5000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-2400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-4000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-600</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4709,8 +5056,14 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4777,8 +5130,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4845,8 +5204,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4913,65 +5278,71 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-101000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-77300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-56800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-74300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-66800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-63700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>5400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>5200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>5700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>8500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>6600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2000</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4981,8 +5352,14 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5049,140 +5426,152 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44647</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44556</v>
+      </c>
+      <c r="F80" s="2">
         <v>44465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44374</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44283</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44192</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44101</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44010</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43919</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43828</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43737</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43464</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43282</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43191</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43002</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-5900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-7700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2700</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
+      <c r="V81" s="3">
+        <v>0</v>
       </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
@@ -5190,8 +5579,14 @@
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5216,61 +5611,63 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F83" s="3">
         <v>2400</v>
-      </c>
-      <c r="E83" s="3">
-        <v>400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
       </c>
       <c r="H83" s="3">
+        <v>400</v>
+      </c>
+      <c r="I83" s="3">
+        <v>400</v>
+      </c>
+      <c r="J83" s="3">
         <v>300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>300</v>
       </c>
       <c r="L83" s="3">
+        <v>200</v>
+      </c>
+      <c r="M83" s="3">
         <v>300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
+        <v>300</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
-      </c>
-      <c r="N83" s="3">
-        <v>100</v>
-      </c>
-      <c r="O83" s="3">
-        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
       </c>
       <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
@@ -5284,8 +5681,14 @@
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5352,8 +5755,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5420,8 +5829,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5488,8 +5903,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5556,8 +5977,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5624,62 +6051,68 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F89" s="3">
         <v>900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-3700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-4500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-3400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>700</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5692,8 +6125,14 @@
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5718,32 +6157,34 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -5760,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5768,11 +6209,11 @@
       <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-100</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
@@ -5786,8 +6227,14 @@
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5854,8 +6301,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5922,62 +6375,68 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-377100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-346400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-3500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-26800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-2900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-8300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1500</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5990,8 +6449,14 @@
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6016,8 +6481,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6025,20 +6492,20 @@
         <v>-2100</v>
       </c>
       <c r="E96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G96" s="3">
         <v>-2600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-100</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -6055,17 +6522,17 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-400</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -6084,8 +6551,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6152,8 +6625,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6220,8 +6699,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6288,62 +6773,68 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>428800</v>
+      </c>
+      <c r="F100" s="3">
         <v>335000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>52000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>42100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>12500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>3100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>3300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>4000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>7800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>2200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-700</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6356,8 +6847,14 @@
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6424,61 +6921,67 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>56400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-10500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>49100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-7100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>10800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>5700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>900</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
+      <c r="T102" s="3">
+        <v>0</v>
       </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
@@ -6490,6 +6993,12 @@
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="92">
   <si>
     <t>FAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,99 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44738</v>
+      </c>
+      <c r="E7" s="2">
         <v>44647</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44556</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44374</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44283</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44192</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44101</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44010</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43919</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43828</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43737</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43464</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43282</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43191</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43002</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
@@ -766,70 +767,73 @@
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>102800</v>
+      </c>
+      <c r="E8" s="3">
         <v>97400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>74200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>29800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2200</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
+      <c r="W8" s="3">
+        <v>0</v>
       </c>
       <c r="X8" s="3" t="s">
         <v>3</v>
@@ -840,8 +844,11 @@
       <c r="Z8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -914,8 +921,11 @@
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -988,8 +998,11 @@
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1016,8 +1029,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1090,8 +1104,11 @@
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1164,64 +1181,67 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>600</v>
+      </c>
+      <c r="E14" s="3">
         <v>800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1800</v>
       </c>
-      <c r="G14" s="3">
-        <v>5500</v>
-      </c>
       <c r="H14" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-900</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1238,13 +1258,16 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>6700</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>3</v>
@@ -1255,8 +1278,8 @@
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+      <c r="H15" s="3">
+        <v>400</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -1273,29 +1296,29 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3">
         <v>300</v>
-      </c>
-      <c r="O15" s="3">
-        <v>100</v>
       </c>
       <c r="P15" s="3">
         <v>100</v>
       </c>
       <c r="Q15" s="3">
+        <v>100</v>
+      </c>
+      <c r="R15" s="3">
         <v>200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>100</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>3</v>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>3</v>
@@ -1312,8 +1335,11 @@
       <c r="Z15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1337,70 +1363,71 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>96900</v>
+        <v>94300</v>
       </c>
       <c r="E17" s="3">
+        <v>98900</v>
+      </c>
+      <c r="F17" s="3">
         <v>79600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>27600</v>
       </c>
-      <c r="G17" s="3">
-        <v>12900</v>
-      </c>
       <c r="H17" s="3">
+        <v>13800</v>
+      </c>
+      <c r="I17" s="3">
         <v>6800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>5500</v>
       </c>
       <c r="M17" s="3">
         <v>5500</v>
       </c>
       <c r="N17" s="3">
-        <v>4100</v>
+        <v>5500</v>
       </c>
       <c r="O17" s="3">
         <v>4100</v>
       </c>
       <c r="P17" s="3">
-        <v>4600</v>
+        <v>4100</v>
       </c>
       <c r="Q17" s="3">
         <v>4600</v>
       </c>
       <c r="R17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="S17" s="3">
         <v>4300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2100</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
+      <c r="W17" s="3">
+        <v>0</v>
       </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
@@ -1411,70 +1438,73 @@
       <c r="Z17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="E18" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="L18" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>100</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
+      <c r="W18" s="3">
+        <v>0</v>
       </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
@@ -1485,8 +1515,11 @@
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1513,70 +1546,71 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-19700</v>
+        <v>-16900</v>
       </c>
       <c r="E20" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-14400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7000</v>
       </c>
-      <c r="G20" s="3">
-        <v>-3300</v>
-      </c>
       <c r="H20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I20" s="3">
         <v>-2300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
+      <c r="W20" s="3">
+        <v>0</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
@@ -1587,65 +1621,68 @@
       <c r="Z20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-12700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-14400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-9500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>900</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1661,8 +1698,11 @@
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1700,29 +1740,29 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>200</v>
       </c>
       <c r="T22" s="3">
         <v>200</v>
       </c>
       <c r="U22" s="3">
+        <v>200</v>
+      </c>
+      <c r="V22" s="3">
         <v>400</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1735,70 +1775,73 @@
       <c r="Z22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
-      </c>
-      <c r="N23" s="3">
-        <v>800</v>
       </c>
       <c r="O23" s="3">
         <v>800</v>
       </c>
       <c r="P23" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
+      <c r="W23" s="3">
+        <v>0</v>
       </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
@@ -1809,70 +1852,73 @@
       <c r="Z23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
         <v>4500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2300</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-100</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>3</v>
+      <c r="W24" s="3">
+        <v>0</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>3</v>
@@ -1883,8 +1929,11 @@
       <c r="Z24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1957,70 +2006,73 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-8200</v>
       </c>
       <c r="E26" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-19600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2700</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
+      <c r="W26" s="3">
+        <v>0</v>
       </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
@@ -2031,70 +2083,73 @@
       <c r="Z26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-8200</v>
       </c>
       <c r="E27" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-19600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2700</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
+      <c r="W27" s="3">
+        <v>0</v>
       </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
@@ -2105,8 +2160,11 @@
       <c r="Z27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2179,8 +2237,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2217,8 +2278,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>3</v>
@@ -2235,12 +2296,12 @@
       <c r="T29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V29" s="3">
         <v>-500</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2314,11 @@
       <c r="Z29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2327,8 +2391,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2401,70 +2468,73 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>19700</v>
+        <v>16900</v>
       </c>
       <c r="E32" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F32" s="3">
         <v>14400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7000</v>
       </c>
-      <c r="G32" s="3">
-        <v>3300</v>
-      </c>
       <c r="H32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I32" s="3">
         <v>2300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
+      <c r="W32" s="3">
+        <v>0</v>
       </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
@@ -2475,70 +2545,73 @@
       <c r="Z32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-8200</v>
       </c>
       <c r="E33" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-19600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2700</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
+      <c r="W33" s="3">
+        <v>0</v>
       </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
@@ -2549,8 +2622,11 @@
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2623,70 +2699,73 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-8200</v>
       </c>
       <c r="E35" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-19600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2700</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
+      <c r="W35" s="3">
+        <v>0</v>
       </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
@@ -2697,76 +2776,79 @@
       <c r="Z35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44738</v>
+      </c>
+      <c r="E38" s="2">
         <v>44647</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44556</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44374</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44283</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44192</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44101</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44010</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43919</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43828</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43737</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43464</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43282</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43191</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43002</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2776,8 +2858,11 @@
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2804,8 +2889,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2832,67 +2918,68 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E41" s="3">
         <v>29000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>56700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>48100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4600</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
-      </c>
-      <c r="P41" s="3">
-        <v>700</v>
       </c>
       <c r="Q41" s="3">
         <v>700</v>
       </c>
       <c r="R41" s="3">
+        <v>700</v>
+      </c>
+      <c r="S41" s="3">
         <v>1900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1000</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
+      <c r="V41" s="3">
+        <v>0</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
@@ -2906,8 +2993,11 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2980,68 +3070,71 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E43" s="3">
         <v>18200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>19800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>14500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1000</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3054,8 +3147,11 @@
       <c r="Z43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3128,67 +3224,70 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E45" s="3">
         <v>50000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>42100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>25400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>400</v>
-      </c>
-      <c r="T45" s="3">
-        <v>200</v>
       </c>
       <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
+      <c r="V45" s="3">
+        <v>200</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>3</v>
@@ -3202,68 +3301,71 @@
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>92800</v>
+      </c>
+      <c r="E46" s="3">
         <v>97200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>118500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>63500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>68200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>21700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>24400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>31200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1200</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3276,22 +3378,25 @@
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E47" s="3">
         <v>3400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2100</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1600</v>
       </c>
       <c r="H47" s="3">
         <v>1600</v>
@@ -3300,44 +3405,44 @@
         <v>1600</v>
       </c>
       <c r="J47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K47" s="3">
         <v>40300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>36300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>33700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>27800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>24800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>22200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>18000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>15700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>15500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>9200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>9100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>8300</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3350,52 +3455,55 @@
       <c r="Z47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E48" s="3">
         <v>178200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>179100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>22800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1000</v>
-      </c>
-      <c r="O48" s="3">
-        <v>1100</v>
       </c>
       <c r="P48" s="3">
         <v>1100</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
+      <c r="Q48" s="3">
+        <v>1100</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
@@ -3406,8 +3514,8 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3424,68 +3532,71 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>943400</v>
+      </c>
+      <c r="E49" s="3">
         <v>944200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>947900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>508500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>56700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>57000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>58600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>72100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>37000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>40400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>40600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>42000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>42200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>33600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>33700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>30000</v>
-      </c>
-      <c r="S49" s="3">
-        <v>18300</v>
       </c>
       <c r="T49" s="3">
         <v>18300</v>
       </c>
       <c r="U49" s="3">
+        <v>18300</v>
+      </c>
+      <c r="V49" s="3">
         <v>18400</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3498,8 +3609,11 @@
       <c r="Z49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3572,8 +3686,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3646,68 +3763,71 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E52" s="3">
         <v>21700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>21100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>22900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>37800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>33600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>32000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5000</v>
-      </c>
-      <c r="R52" s="3">
-        <v>2200</v>
       </c>
       <c r="S52" s="3">
         <v>2200</v>
       </c>
       <c r="T52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U52" s="3">
         <v>2000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1400</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3720,8 +3840,11 @@
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3794,68 +3917,71 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1232500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1244800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1270000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>619800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>169200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>118100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>121100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>149600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>90900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>92200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>82600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>79600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>78200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>60400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>58000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>52600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>32500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>30900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>29200</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,8 +3994,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3896,8 +4025,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3924,68 +4054,69 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E57" s="3">
         <v>23500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>27500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>12900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2400</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3998,62 +4129,65 @@
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>22100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>19300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>700</v>
       </c>
       <c r="L58" s="3">
         <v>700</v>
       </c>
       <c r="M58" s="3">
+        <v>700</v>
+      </c>
+      <c r="N58" s="3">
         <v>24500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>24400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>23800</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3">
         <v>15400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3000</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4072,68 +4206,71 @@
       <c r="Z58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>231400</v>
+      </c>
+      <c r="E59" s="3">
         <v>236400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>169200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>48800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>43800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>45100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>45200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>22100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7800</v>
-      </c>
-      <c r="R59" s="3">
-        <v>4800</v>
       </c>
       <c r="S59" s="3">
         <v>4800</v>
       </c>
       <c r="T59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="U59" s="3">
         <v>6400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4300</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4146,68 +4283,71 @@
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>256200</v>
+      </c>
+      <c r="E60" s="3">
         <v>261900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>198500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>62200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>53200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>75900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>73200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>31900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>45600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>42700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>42000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>27600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6700</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4220,68 +4360,71 @@
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>908600</v>
+      </c>
+      <c r="E61" s="3">
         <v>907100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>904300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>485500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>146100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>71500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>73900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>86400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>59400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>57900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>20500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>34000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>14200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>29100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>17500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>18100</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4294,37 +4437,40 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>128800</v>
+      </c>
+      <c r="E62" s="3">
         <v>126900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>124500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13900</v>
-      </c>
-      <c r="L62" s="3">
-        <v>11000</v>
       </c>
       <c r="M62" s="3">
         <v>11000</v>
@@ -4333,29 +4479,29 @@
         <v>11000</v>
       </c>
       <c r="O62" s="3">
+        <v>11000</v>
+      </c>
+      <c r="P62" s="3">
         <v>11600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2400</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4368,8 +4514,11 @@
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4442,8 +4591,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4516,8 +4668,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4590,68 +4745,71 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1293600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1295900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1227200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>571900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>214400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>163700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>163000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>137100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>94500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>89200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>77200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>73400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>73300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>55200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>52200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>44100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>25900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>32200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>27200</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4664,8 +4822,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4692,8 +4853,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4766,8 +4928,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4840,35 +5005,38 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E70" s="3">
         <v>49900</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>120100</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>104700</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>29100</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>21300</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>21800</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>13000</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -4914,8 +5082,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4988,68 +5159,71 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-84400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-76200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-52500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-32900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-29300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-23300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-20900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5000</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-2400</v>
       </c>
       <c r="S72" s="3">
         <v>-2400</v>
       </c>
       <c r="T72" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="U72" s="3">
         <v>-4000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-600</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5062,8 +5236,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5136,8 +5313,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5210,8 +5390,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5284,68 +5467,71 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-109400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-101000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-77300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-56800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-74300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-66800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-63700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2000</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5358,8 +5544,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5432,76 +5621,79 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44738</v>
+      </c>
+      <c r="E80" s="2">
         <v>44647</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44556</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44374</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44283</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44192</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44101</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44010</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43919</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43828</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43737</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43464</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43282</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43191</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43002</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5511,70 +5703,73 @@
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-8200</v>
       </c>
       <c r="E81" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-19600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2700</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
+      <c r="W81" s="3">
+        <v>0</v>
       </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
@@ -5585,8 +5780,11 @@
       <c r="Z81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5613,22 +5811,23 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E83" s="3">
         <v>6600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>400</v>
@@ -5637,40 +5836,40 @@
         <v>400</v>
       </c>
       <c r="J83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K83" s="3">
         <v>300</v>
       </c>
       <c r="L83" s="3">
+        <v>300</v>
+      </c>
+      <c r="M83" s="3">
         <v>200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>300</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
       </c>
       <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
         <v>200</v>
-      </c>
-      <c r="R83" s="3">
-        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
       </c>
       <c r="T83" s="3">
-        <v>0</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
@@ -5687,8 +5886,11 @@
       <c r="Z83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5761,8 +5963,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5835,8 +6040,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5909,8 +6117,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5983,8 +6194,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6057,65 +6271,68 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>700</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
@@ -6131,8 +6348,11 @@
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6159,34 +6379,35 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-200</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -6207,17 +6428,17 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6233,8 +6454,11 @@
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6307,8 +6531,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6381,65 +6608,68 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-377100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-346400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-26800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1500</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7700</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
@@ -6455,8 +6685,11 @@
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6483,8 +6716,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6498,17 +6732,17 @@
         <v>-2100</v>
       </c>
       <c r="G96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H96" s="3">
         <v>-2600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-100</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -6528,14 +6762,14 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-400</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -6557,8 +6791,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6631,8 +6868,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6705,8 +6945,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6779,65 +7022,68 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>428800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>335000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>52000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>42100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>12500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>7800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-700</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6853,8 +7099,11 @@
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6927,64 +7176,67 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-19400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>56400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-10500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>49100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>10800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-200</v>
       </c>
       <c r="O102" s="3">
         <v>-200</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-1200</v>
-      </c>
-      <c r="R102" s="3">
-        <v>900</v>
       </c>
       <c r="S102" s="3">
         <v>900</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
+        <v>900</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
       </c>
       <c r="V102" s="3" t="s">
         <v>3</v>
@@ -6999,6 +7251,9 @@
         <v>3</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="92">
   <si>
     <t>FAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,102 +665,103 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44829</v>
+      </c>
+      <c r="E7" s="2">
         <v>44738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44647</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44556</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44374</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44283</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44192</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44101</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44010</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43919</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43828</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43737</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43464</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43282</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43191</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43002</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
@@ -770,73 +771,76 @@
       <c r="AA7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>103200</v>
+      </c>
+      <c r="E8" s="3">
         <v>102800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>97400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>74200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>29800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2200</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>3</v>
+      <c r="X8" s="3">
+        <v>0</v>
       </c>
       <c r="Y8" s="3" t="s">
         <v>3</v>
@@ -847,8 +851,11 @@
       <c r="AA8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -924,8 +931,11 @@
       <c r="AA9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1001,8 +1011,11 @@
       <c r="AA10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1030,8 +1043,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1121,11 @@
       <c r="AA12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1184,67 +1201,70 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-900</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>1000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1261,29 +1281,32 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E15" s="3">
         <v>6700</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3">
         <v>400</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1299,29 +1322,29 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3">
         <v>300</v>
-      </c>
-      <c r="P15" s="3">
-        <v>100</v>
       </c>
       <c r="Q15" s="3">
         <v>100</v>
       </c>
       <c r="R15" s="3">
+        <v>100</v>
+      </c>
+      <c r="S15" s="3">
         <v>200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>100</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>3</v>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>3</v>
@@ -1338,8 +1361,11 @@
       <c r="AA15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1364,73 +1390,74 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>107200</v>
+      </c>
+      <c r="E17" s="3">
         <v>94300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>98900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>79600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>27600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>5500</v>
       </c>
       <c r="N17" s="3">
         <v>5500</v>
       </c>
       <c r="O17" s="3">
-        <v>4100</v>
+        <v>5500</v>
       </c>
       <c r="P17" s="3">
         <v>4100</v>
       </c>
       <c r="Q17" s="3">
-        <v>4600</v>
+        <v>4100</v>
       </c>
       <c r="R17" s="3">
         <v>4600</v>
       </c>
       <c r="S17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="T17" s="3">
         <v>4300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2100</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
+      <c r="X17" s="3">
+        <v>0</v>
       </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
@@ -1441,73 +1468,76 @@
       <c r="AA17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E18" s="3">
         <v>8500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>100</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
+      <c r="X18" s="3">
+        <v>0</v>
       </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
@@ -1518,8 +1548,11 @@
       <c r="AA18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1547,73 +1580,74 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-16900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-17700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-14400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
+      <c r="X20" s="3">
+        <v>0</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>3</v>
@@ -1624,68 +1658,71 @@
       <c r="AA20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-12700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-14400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-9500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>900</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1738,11 @@
       <c r="AA21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1743,29 +1783,29 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>200</v>
       </c>
       <c r="U22" s="3">
         <v>200</v>
       </c>
       <c r="V22" s="3">
+        <v>200</v>
+      </c>
+      <c r="W22" s="3">
         <v>400</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1778,73 +1818,76 @@
       <c r="AA22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
-      </c>
-      <c r="O23" s="3">
-        <v>800</v>
       </c>
       <c r="P23" s="3">
         <v>800</v>
       </c>
       <c r="Q23" s="3">
+        <v>800</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
+      <c r="X23" s="3">
+        <v>0</v>
       </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
@@ -1855,73 +1898,76 @@
       <c r="AA23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2300</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-100</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>3</v>
+      <c r="X24" s="3">
+        <v>0</v>
       </c>
       <c r="Y24" s="3" t="s">
         <v>3</v>
@@ -1932,8 +1978,11 @@
       <c r="AA24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2009,73 +2058,76 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-23800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-19600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2700</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
+      <c r="X26" s="3">
+        <v>0</v>
       </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
@@ -2086,73 +2138,76 @@
       <c r="AA26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-23800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-19600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2700</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
+      <c r="X27" s="3">
+        <v>0</v>
       </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
@@ -2163,8 +2218,11 @@
       <c r="AA27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2240,8 +2298,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2281,8 +2342,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>3</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>3</v>
@@ -2299,12 +2360,12 @@
       <c r="U29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W29" s="3">
         <v>-500</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2317,8 +2378,11 @@
       <c r="AA29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2394,8 +2458,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2471,73 +2538,76 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E32" s="3">
         <v>16900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>17700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>14400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
+      <c r="X32" s="3">
+        <v>0</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>3</v>
@@ -2548,73 +2618,76 @@
       <c r="AA32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-23800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-19600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2700</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
+      <c r="X33" s="3">
+        <v>0</v>
       </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
@@ -2625,8 +2698,11 @@
       <c r="AA33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2702,73 +2778,76 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-23800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-19600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2700</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
+      <c r="X35" s="3">
+        <v>0</v>
       </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
@@ -2779,79 +2858,82 @@
       <c r="AA35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44829</v>
+      </c>
+      <c r="E38" s="2">
         <v>44738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44647</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44556</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44374</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44283</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44192</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44101</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44010</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43919</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43828</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43737</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43464</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43282</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43191</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43002</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +2943,11 @@
       <c r="AA38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2890,8 +2975,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2919,70 +3005,71 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E41" s="3">
         <v>15500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>29000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>56700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>23600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>48100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4600</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>700</v>
       </c>
       <c r="R41" s="3">
         <v>700</v>
       </c>
       <c r="S41" s="3">
+        <v>700</v>
+      </c>
+      <c r="T41" s="3">
         <v>1900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1000</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
+      <c r="W41" s="3">
+        <v>0</v>
       </c>
       <c r="X41" s="3" t="s">
         <v>3</v>
@@ -2996,8 +3083,11 @@
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3073,71 +3163,74 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E43" s="3">
         <v>35900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>18200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>19800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>14500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1000</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3150,8 +3243,11 @@
       <c r="AA43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3227,70 +3323,73 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E45" s="3">
         <v>41400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>50000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>42100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>25400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>400</v>
-      </c>
-      <c r="U45" s="3">
-        <v>200</v>
       </c>
       <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>3</v>
+      <c r="W45" s="3">
+        <v>200</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>3</v>
@@ -3304,71 +3403,74 @@
       <c r="AA45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E46" s="3">
         <v>92800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>97200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>118500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>63500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>68200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>21700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>24400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>31200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1200</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,25 +3483,28 @@
       <c r="AA46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E47" s="3">
         <v>1900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2100</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1600</v>
       </c>
       <c r="I47" s="3">
         <v>1600</v>
@@ -3408,44 +3513,44 @@
         <v>1600</v>
       </c>
       <c r="K47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L47" s="3">
         <v>40300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>36300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>33700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>27800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>24800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>22200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>18000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>15700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>15500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>9200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>9100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>8300</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3458,55 +3563,58 @@
       <c r="AA47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>180100</v>
+      </c>
+      <c r="E48" s="3">
         <v>179000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>178200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>179100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>22800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1000</v>
-      </c>
-      <c r="P48" s="3">
-        <v>1100</v>
       </c>
       <c r="Q48" s="3">
         <v>1100</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
+      <c r="R48" s="3">
+        <v>1100</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
@@ -3517,8 +3625,8 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="V48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
@@ -3535,71 +3643,74 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>936800</v>
+      </c>
+      <c r="E49" s="3">
         <v>943400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>944200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>947900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>508500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>56700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>57000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>58600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>72100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>37000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>40400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>40600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>42000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>42200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>33600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>33700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>30000</v>
-      </c>
-      <c r="T49" s="3">
-        <v>18300</v>
       </c>
       <c r="U49" s="3">
         <v>18300</v>
       </c>
       <c r="V49" s="3">
+        <v>18300</v>
+      </c>
+      <c r="W49" s="3">
         <v>18400</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3612,8 +3723,11 @@
       <c r="AA49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3689,8 +3803,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3766,71 +3883,74 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E52" s="3">
         <v>15500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>21700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>21100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>22900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>37800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>33600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>32000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5000</v>
-      </c>
-      <c r="S52" s="3">
-        <v>2200</v>
       </c>
       <c r="T52" s="3">
         <v>2200</v>
       </c>
       <c r="U52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V52" s="3">
         <v>2000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1400</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3843,8 +3963,11 @@
       <c r="AA52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3920,71 +4043,74 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1244200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1232500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1244800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1270000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>619800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>169200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>118100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>121100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>149600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>90900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>92200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>82600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>79600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>78200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>60400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>58000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>52600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>32500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>30900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>29200</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3997,8 +4123,11 @@
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4026,8 +4155,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4055,71 +4185,72 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E57" s="3">
         <v>23600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>23500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>27500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2400</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4132,65 +4263,68 @@
       <c r="AA57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>22100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>19300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>700</v>
       </c>
       <c r="M58" s="3">
         <v>700</v>
       </c>
       <c r="N58" s="3">
+        <v>700</v>
+      </c>
+      <c r="O58" s="3">
         <v>24500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>24400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>23800</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3">
         <v>15400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3000</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4209,71 +4343,74 @@
       <c r="AA58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>242500</v>
+      </c>
+      <c r="E59" s="3">
         <v>231400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>236400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>169200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>48800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>43800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>45100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>45200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>22100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7800</v>
-      </c>
-      <c r="S59" s="3">
-        <v>4800</v>
       </c>
       <c r="T59" s="3">
         <v>4800</v>
       </c>
       <c r="U59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="V59" s="3">
         <v>6400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4300</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4286,71 +4423,74 @@
       <c r="AA59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>266300</v>
+      </c>
+      <c r="E60" s="3">
         <v>256200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>261900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>198500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>62200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>53200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>75900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>73200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>31900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>20300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>45600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>42700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>42000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>27600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6700</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4363,71 +4503,74 @@
       <c r="AA60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>938100</v>
+      </c>
+      <c r="E61" s="3">
         <v>908600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>907100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>904300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>485500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>146100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>71500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>73900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>86400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>59400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>57900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>20500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>19800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>34000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>29100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>17500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>18100</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4440,40 +4583,43 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>126300</v>
+      </c>
+      <c r="E62" s="3">
         <v>128800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>126900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>124500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13900</v>
-      </c>
-      <c r="M62" s="3">
-        <v>11000</v>
       </c>
       <c r="N62" s="3">
         <v>11000</v>
@@ -4482,29 +4628,29 @@
         <v>11000</v>
       </c>
       <c r="P62" s="3">
+        <v>11000</v>
+      </c>
+      <c r="Q62" s="3">
         <v>11600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2400</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4517,8 +4663,11 @@
       <c r="AA62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4594,8 +4743,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4671,8 +4823,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4748,71 +4903,74 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1330700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1293600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1295900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1227200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>571900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>214400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>163700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>163000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>137100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>94500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>89200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>77200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>73400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>73300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>55200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>52200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>44100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>25900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>32200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>27200</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4825,8 +4983,11 @@
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4854,8 +5015,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4931,8 +5093,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5008,38 +5173,41 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>46600</v>
+      </c>
+      <c r="E70" s="3">
         <v>48300</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>49900</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>120100</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>104700</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>29100</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>21300</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>21800</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>13000</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -5085,8 +5253,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5162,71 +5333,74 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-107900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-84400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-76200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-52500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-32900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-29300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-23300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-20900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5000</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-2400</v>
       </c>
       <c r="T72" s="3">
         <v>-2400</v>
       </c>
       <c r="U72" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="V72" s="3">
         <v>-4000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-600</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5239,8 +5413,11 @@
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5316,8 +5493,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5393,8 +5573,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5470,71 +5653,74 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-133100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-109400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-101000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-77300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-56800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-74300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-66800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-63700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2000</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5547,8 +5733,11 @@
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5624,79 +5813,82 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44829</v>
+      </c>
+      <c r="E80" s="2">
         <v>44738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44647</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44556</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44374</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44283</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44192</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44101</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44010</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43919</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43828</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43737</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43464</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43282</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43191</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43002</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5706,73 +5898,76 @@
       <c r="AA80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-23800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-19600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2700</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
+      <c r="X81" s="3">
+        <v>0</v>
       </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
@@ -5783,8 +5978,11 @@
       <c r="AA81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5812,25 +6010,26 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E83" s="3">
         <v>4100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>400</v>
@@ -5839,40 +6038,40 @@
         <v>400</v>
       </c>
       <c r="K83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L83" s="3">
         <v>300</v>
       </c>
       <c r="M83" s="3">
+        <v>300</v>
+      </c>
+      <c r="N83" s="3">
         <v>200</v>
-      </c>
-      <c r="N83" s="3">
-        <v>300</v>
       </c>
       <c r="O83" s="3">
         <v>300</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
       </c>
       <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
         <v>200</v>
-      </c>
-      <c r="S83" s="3">
-        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
       </c>
       <c r="U83" s="3">
-        <v>0</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
@@ -5889,8 +6088,11 @@
       <c r="AA83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5966,8 +6168,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6043,8 +6248,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6120,8 +6328,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6197,8 +6408,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6274,68 +6488,71 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-18300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>700</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
@@ -6351,8 +6568,11 @@
       <c r="AA89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6380,37 +6600,38 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-200</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -6431,17 +6652,17 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6457,8 +6678,11 @@
       <c r="AA91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6534,8 +6758,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6611,68 +6838,71 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-377100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-346400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-26800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7700</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
@@ -6688,8 +6918,11 @@
       <c r="AA94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6717,13 +6950,14 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2100</v>
+        <v>-2300</v>
       </c>
       <c r="E96" s="3">
         <v>-2100</v>
@@ -6735,17 +6969,17 @@
         <v>-2100</v>
       </c>
       <c r="H96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-2600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -6765,14 +6999,14 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-400</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -6794,8 +7028,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6871,8 +7108,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6948,8 +7188,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7025,68 +7268,71 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>428800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>335000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>52000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>42100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>12500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>7800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-700</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
@@ -7102,8 +7348,11 @@
       <c r="AA100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7179,67 +7428,70 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-29100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-19400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>56400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>49100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>10800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-200</v>
       </c>
       <c r="P102" s="3">
         <v>-200</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-1200</v>
-      </c>
-      <c r="S102" s="3">
-        <v>900</v>
       </c>
       <c r="T102" s="3">
         <v>900</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
+        <v>900</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
       </c>
       <c r="W102" s="3" t="s">
         <v>3</v>
@@ -7254,6 +7506,9 @@
         <v>3</v>
       </c>
       <c r="AA102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="92">
   <si>
     <t>FAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,106 +665,106 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44920</v>
+      </c>
+      <c r="E7" s="2">
         <v>44829</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44647</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44556</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44374</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44283</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44192</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44101</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44010</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43919</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43828</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43737</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43464</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43282</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43191</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43002</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
@@ -774,76 +774,79 @@
       <c r="AB7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>103800</v>
+      </c>
+      <c r="E8" s="3">
         <v>103200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>102800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>97400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>74200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>29800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2200</v>
       </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>3</v>
+      <c r="Y8" s="3">
+        <v>0</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>3</v>
@@ -854,8 +857,11 @@
       <c r="AB8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -934,8 +940,11 @@
       <c r="AB9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1014,8 +1023,11 @@
       <c r="AB10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1044,8 +1056,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1124,8 +1137,11 @@
       <c r="AB12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1204,70 +1220,73 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-900</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>1000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1284,8 +1303,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1293,23 +1315,23 @@
         <v>6900</v>
       </c>
       <c r="E15" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F15" s="3">
         <v>6700</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
         <v>400</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1325,29 +1347,29 @@
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="3">
         <v>300</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>100</v>
       </c>
       <c r="R15" s="3">
         <v>100</v>
       </c>
       <c r="S15" s="3">
+        <v>100</v>
+      </c>
+      <c r="T15" s="3">
         <v>200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>100</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>3</v>
+      <c r="W15" s="3">
+        <v>0</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>3</v>
@@ -1364,8 +1386,11 @@
       <c r="AB15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1391,76 +1416,77 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>141100</v>
+      </c>
+      <c r="E17" s="3">
         <v>107200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>94300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>98900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>79600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>27600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>5500</v>
       </c>
       <c r="O17" s="3">
         <v>5500</v>
       </c>
       <c r="P17" s="3">
-        <v>4100</v>
+        <v>5500</v>
       </c>
       <c r="Q17" s="3">
         <v>4100</v>
       </c>
       <c r="R17" s="3">
-        <v>4600</v>
+        <v>4100</v>
       </c>
       <c r="S17" s="3">
         <v>4600</v>
       </c>
       <c r="T17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="U17" s="3">
         <v>4300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2100</v>
       </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>3</v>
+      <c r="Y17" s="3">
+        <v>0</v>
       </c>
       <c r="Z17" s="3" t="s">
         <v>3</v>
@@ -1471,76 +1497,79 @@
       <c r="AB17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>100</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>3</v>
+      <c r="Y18" s="3">
+        <v>0</v>
       </c>
       <c r="Z18" s="3" t="s">
         <v>3</v>
@@ -1551,8 +1580,11 @@
       <c r="AB18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1581,76 +1613,77 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-18900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-16900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-17700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-14400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>3</v>
+      <c r="Y20" s="3">
+        <v>0</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>3</v>
@@ -1661,71 +1694,74 @@
       <c r="AB20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-49800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-13500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-12700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-14400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>900</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,8 +1777,11 @@
       <c r="AB21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1786,29 +1825,29 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>200</v>
       </c>
       <c r="V22" s="3">
         <v>200</v>
       </c>
       <c r="W22" s="3">
+        <v>200</v>
+      </c>
+      <c r="X22" s="3">
         <v>400</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1821,76 +1860,79 @@
       <c r="AB22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-56800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-22900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-19800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
-      </c>
-      <c r="P23" s="3">
-        <v>800</v>
       </c>
       <c r="Q23" s="3">
         <v>800</v>
       </c>
       <c r="R23" s="3">
+        <v>800</v>
+      </c>
+      <c r="S23" s="3">
         <v>-1400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>3</v>
+      <c r="Y23" s="3">
+        <v>0</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>3</v>
@@ -1901,76 +1943,79 @@
       <c r="AB23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2300</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-100</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>3</v>
+      <c r="Y24" s="3">
+        <v>0</v>
       </c>
       <c r="Z24" s="3" t="s">
         <v>3</v>
@@ -1981,8 +2026,11 @@
       <c r="AB24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2061,76 +2109,79 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-70800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-23400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-23800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-19600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2700</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="3" t="s">
-        <v>3</v>
+      <c r="Y26" s="3">
+        <v>0</v>
       </c>
       <c r="Z26" s="3" t="s">
         <v>3</v>
@@ -2141,76 +2192,79 @@
       <c r="AB26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-70800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-23400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-23800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-19600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2700</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="3" t="s">
-        <v>3</v>
+      <c r="Y27" s="3">
+        <v>0</v>
       </c>
       <c r="Z27" s="3" t="s">
         <v>3</v>
@@ -2221,8 +2275,11 @@
       <c r="AB27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2301,8 +2358,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2345,8 +2405,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>3</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>3</v>
@@ -2363,12 +2423,12 @@
       <c r="V29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X29" s="3">
         <v>-500</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2381,8 +2441,11 @@
       <c r="AB29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2461,8 +2524,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2541,76 +2607,79 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E32" s="3">
         <v>18900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>16900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>17700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>14400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3" t="s">
-        <v>3</v>
+      <c r="Y32" s="3">
+        <v>0</v>
       </c>
       <c r="Z32" s="3" t="s">
         <v>3</v>
@@ -2621,76 +2690,79 @@
       <c r="AB32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-70800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-23400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-23800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-19600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2700</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="3" t="s">
-        <v>3</v>
+      <c r="Y33" s="3">
+        <v>0</v>
       </c>
       <c r="Z33" s="3" t="s">
         <v>3</v>
@@ -2701,8 +2773,11 @@
       <c r="AB33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2781,76 +2856,79 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-70800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-23400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-23800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-19600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2700</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="3" t="s">
-        <v>3</v>
+      <c r="Y35" s="3">
+        <v>0</v>
       </c>
       <c r="Z35" s="3" t="s">
         <v>3</v>
@@ -2861,82 +2939,85 @@
       <c r="AB35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44920</v>
+      </c>
+      <c r="E38" s="2">
         <v>44829</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44647</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44556</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44374</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44283</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44192</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44101</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44010</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43919</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43828</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43737</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43464</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43282</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43191</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43002</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2946,8 +3027,11 @@
       <c r="AB38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2976,8 +3060,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3006,73 +3091,74 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E41" s="3">
         <v>23900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>29000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>56700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>23600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>48100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4600</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
-      </c>
-      <c r="R41" s="3">
-        <v>700</v>
       </c>
       <c r="S41" s="3">
         <v>700</v>
       </c>
       <c r="T41" s="3">
+        <v>700</v>
+      </c>
+      <c r="U41" s="3">
         <v>1900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1000</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>3</v>
+      <c r="X41" s="3">
+        <v>0</v>
       </c>
       <c r="Y41" s="3" t="s">
         <v>3</v>
@@ -3086,8 +3172,11 @@
       <c r="AB41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3166,74 +3255,77 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E43" s="3">
         <v>42100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>35900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>18200</v>
       </c>
-      <c r="G43" s="3">
-        <v>19800</v>
-      </c>
       <c r="H43" s="3">
+        <v>20300</v>
+      </c>
+      <c r="I43" s="3">
         <v>14500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1000</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3246,31 +3338,34 @@
       <c r="AB43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
+        <v>6900</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>5900</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -3326,73 +3421,76 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E45" s="3">
         <v>43200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>41400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>50000</v>
       </c>
-      <c r="G45" s="3">
-        <v>42100</v>
-      </c>
       <c r="H45" s="3">
+        <v>36400</v>
+      </c>
+      <c r="I45" s="3">
         <v>25400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>400</v>
-      </c>
-      <c r="V45" s="3">
-        <v>200</v>
       </c>
       <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>3</v>
+      <c r="X45" s="3">
+        <v>200</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>3</v>
@@ -3406,74 +3504,77 @@
       <c r="AB45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>95700</v>
+      </c>
+      <c r="E46" s="3">
         <v>109300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>92800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>97200</v>
       </c>
-      <c r="G46" s="3">
-        <v>118500</v>
-      </c>
       <c r="H46" s="3">
+        <v>119000</v>
+      </c>
+      <c r="I46" s="3">
         <v>63500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>68200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>21700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>24400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>31200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1200</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3486,28 +3587,31 @@
       <c r="AB46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
         <v>1300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2100</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1600</v>
       </c>
       <c r="J47" s="3">
         <v>1600</v>
@@ -3516,44 +3620,44 @@
         <v>1600</v>
       </c>
       <c r="L47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M47" s="3">
         <v>40300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>36300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>33700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>27800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>24800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>22200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>18000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>15700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>15500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>9200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>9100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>8300</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3566,58 +3670,61 @@
       <c r="AB47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>180300</v>
+      </c>
+      <c r="E48" s="3">
         <v>180100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>179000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>178200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>179100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>22800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>1100</v>
       </c>
       <c r="R48" s="3">
         <v>1100</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
+      <c r="S48" s="3">
+        <v>1100</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
@@ -3628,8 +3735,8 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
+      <c r="W48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X48" s="3">
         <v>0</v>
@@ -3646,74 +3753,77 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>918600</v>
+      </c>
+      <c r="E49" s="3">
         <v>936800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>943400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>944200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>947900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>508500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>56700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>57000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>58600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>72100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>37000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>40400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>40600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>42000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>42200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>33600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>33700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>30000</v>
-      </c>
-      <c r="U49" s="3">
-        <v>18300</v>
       </c>
       <c r="V49" s="3">
         <v>18300</v>
       </c>
       <c r="W49" s="3">
+        <v>18300</v>
+      </c>
+      <c r="X49" s="3">
         <v>18400</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3726,8 +3836,11 @@
       <c r="AB49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3806,8 +3919,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3886,74 +4002,77 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E52" s="3">
         <v>16700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>21700</v>
       </c>
-      <c r="G52" s="3">
-        <v>21100</v>
-      </c>
       <c r="H52" s="3">
+        <v>24000</v>
+      </c>
+      <c r="I52" s="3">
         <v>22900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>37800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>33600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>32000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5000</v>
-      </c>
-      <c r="T52" s="3">
-        <v>2200</v>
       </c>
       <c r="U52" s="3">
         <v>2200</v>
       </c>
       <c r="V52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="W52" s="3">
         <v>2000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1400</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3966,8 +4085,11 @@
       <c r="AB52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4046,74 +4168,77 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1213300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1244200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1232500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1244800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1270000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>619800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>169200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>118100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>121100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>149600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>90900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>92200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>82600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>79600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>78200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>60400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>58000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>52600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>32500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>30900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>29200</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4126,8 +4251,11 @@
       <c r="AB54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4156,8 +4284,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4186,74 +4315,75 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E57" s="3">
         <v>21000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>23600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>23500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>27500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>12900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2400</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4266,68 +4396,71 @@
       <c r="AB57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E58" s="3">
         <v>2800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2000</v>
       </c>
-      <c r="G58" s="3">
-        <v>1800</v>
-      </c>
       <c r="H58" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>22100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>19300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1600</v>
-      </c>
-      <c r="M58" s="3">
-        <v>700</v>
       </c>
       <c r="N58" s="3">
         <v>700</v>
       </c>
       <c r="O58" s="3">
+        <v>700</v>
+      </c>
+      <c r="P58" s="3">
         <v>24500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>24400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>23800</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3">
         <v>15400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3000</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4346,74 +4479,77 @@
       <c r="AB58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>195100</v>
+      </c>
+      <c r="E59" s="3">
         <v>242500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>231400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>236400</v>
       </c>
-      <c r="G59" s="3">
-        <v>169200</v>
-      </c>
       <c r="H59" s="3">
+        <v>233700</v>
+      </c>
+      <c r="I59" s="3">
         <v>48800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>43800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>45100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>45200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>22100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7800</v>
-      </c>
-      <c r="T59" s="3">
-        <v>4800</v>
       </c>
       <c r="U59" s="3">
         <v>4800</v>
       </c>
       <c r="V59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="W59" s="3">
         <v>6400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4300</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4426,74 +4562,77 @@
       <c r="AB59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E60" s="3">
         <v>266300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>256200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>261900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>198500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>62200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>53200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>75900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>73200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>31900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>20300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>45600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>42700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>42000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>27600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6700</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4506,74 +4645,77 @@
       <c r="AB60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>958600</v>
+      </c>
+      <c r="E61" s="3">
         <v>938100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>908600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>907100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>904300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>485500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>146100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>71500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>73900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>86400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>59400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>57900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>20500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>19700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>34000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>14200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>29100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>17500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>18100</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
@@ -4586,43 +4728,46 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>146800</v>
+      </c>
+      <c r="E62" s="3">
         <v>126300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>128800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>126900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>124500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13900</v>
-      </c>
-      <c r="N62" s="3">
-        <v>11000</v>
       </c>
       <c r="O62" s="3">
         <v>11000</v>
@@ -4631,29 +4776,29 @@
         <v>11000</v>
       </c>
       <c r="Q62" s="3">
+        <v>11000</v>
+      </c>
+      <c r="R62" s="3">
         <v>11600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2400</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4666,8 +4811,11 @@
       <c r="AB62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4746,8 +4894,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4826,8 +4977,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4906,74 +5060,77 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1372500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1330700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1293600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1295900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1227200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>571900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>214400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>163700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>163000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>137100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>94500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>89200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>77200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>73400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>73300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>55200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>52200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>44100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>25900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>32200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>27200</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4986,8 +5143,11 @@
       <c r="AB66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5016,8 +5176,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5096,8 +5257,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5176,41 +5340,44 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E70" s="3">
         <v>46600</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>48300</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>49900</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>120100</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>104700</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>29100</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>21300</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>21800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>13000</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -5256,8 +5423,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5336,74 +5506,77 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-178700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-107900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-84400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-76200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-52500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-32900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-29300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-23300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-20900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5000</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-2400</v>
       </c>
       <c r="U72" s="3">
         <v>-2400</v>
       </c>
       <c r="V72" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="W72" s="3">
         <v>-4000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-600</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5416,8 +5589,11 @@
       <c r="AB72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5496,8 +5672,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5576,8 +5755,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5656,74 +5838,77 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-204700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-133100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-109400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-101000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-77300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-56800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-74300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-66800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-63700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2000</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5736,8 +5921,11 @@
       <c r="AB76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5816,82 +6004,85 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44920</v>
+      </c>
+      <c r="E80" s="2">
         <v>44829</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44647</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44556</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44374</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44283</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44192</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44101</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44010</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43919</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43828</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43737</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43464</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43282</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43191</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43002</v>
       </c>
-      <c r="Y80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5901,76 +6092,79 @@
       <c r="AB80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-70800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-23400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-23800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-19600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2700</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y81" s="3" t="s">
-        <v>3</v>
+      <c r="Y81" s="3">
+        <v>0</v>
       </c>
       <c r="Z81" s="3" t="s">
         <v>3</v>
@@ -5981,8 +6175,11 @@
       <c r="AB81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6011,28 +6208,29 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E83" s="3">
         <v>9400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>400</v>
       </c>
       <c r="J83" s="3">
         <v>400</v>
@@ -6041,40 +6239,40 @@
         <v>400</v>
       </c>
       <c r="L83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M83" s="3">
         <v>300</v>
       </c>
       <c r="N83" s="3">
+        <v>300</v>
+      </c>
+      <c r="O83" s="3">
         <v>200</v>
-      </c>
-      <c r="O83" s="3">
-        <v>300</v>
       </c>
       <c r="P83" s="3">
         <v>300</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
       </c>
       <c r="S83" s="3">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3">
         <v>200</v>
-      </c>
-      <c r="T83" s="3">
-        <v>100</v>
       </c>
       <c r="U83" s="3">
         <v>100</v>
       </c>
       <c r="V83" s="3">
-        <v>0</v>
-      </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
@@ -6091,8 +6289,11 @@
       <c r="AB83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6171,8 +6372,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6251,8 +6455,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6331,8 +6538,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6411,8 +6621,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6491,71 +6704,74 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-18300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>700</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
@@ -6571,8 +6787,11 @@
       <c r="AB89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6601,40 +6820,41 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-200</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6655,17 +6875,17 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6681,8 +6901,11 @@
       <c r="AB91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6761,8 +6984,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6841,71 +7067,74 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-377100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-346400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-26800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1500</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7700</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
@@ -6921,8 +7150,11 @@
       <c r="AB94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6951,8 +7183,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6960,7 +7193,7 @@
         <v>-2300</v>
       </c>
       <c r="E96" s="3">
-        <v>-2100</v>
+        <v>-2300</v>
       </c>
       <c r="F96" s="3">
         <v>-2100</v>
@@ -6972,17 +7205,17 @@
         <v>-2100</v>
       </c>
       <c r="I96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J96" s="3">
         <v>-2600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -7002,14 +7235,14 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-400</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -7031,8 +7264,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7111,8 +7347,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7191,8 +7430,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7271,71 +7513,74 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E100" s="3">
         <v>24400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>428800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>335000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>52000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>42100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>12500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>7800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-700</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
@@ -7351,8 +7596,11 @@
       <c r="AB100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7431,70 +7679,73 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E102" s="3">
         <v>10700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-29100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-19400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>56400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-10500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>49100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-200</v>
       </c>
       <c r="Q102" s="3">
         <v>-200</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-1200</v>
-      </c>
-      <c r="T102" s="3">
-        <v>900</v>
       </c>
       <c r="U102" s="3">
         <v>900</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3" t="s">
-        <v>3</v>
+        <v>900</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
       </c>
       <c r="X102" s="3" t="s">
         <v>3</v>
@@ -7509,6 +7760,9 @@
         <v>3</v>
       </c>
       <c r="AB102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="92">
   <si>
     <t>FAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,110 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45011</v>
+      </c>
+      <c r="E7" s="2">
         <v>44920</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44829</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44647</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44556</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44374</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44283</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44192</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44101</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44010</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43919</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43828</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43737</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43464</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43282</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43191</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43002</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA7" s="2" t="s">
         <v>3</v>
       </c>
@@ -777,79 +778,82 @@
       <c r="AC7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>105700</v>
+      </c>
+      <c r="E8" s="3">
         <v>103800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>103200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>102800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>97400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>74200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>29800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2200</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>3</v>
+      <c r="Z8" s="3">
+        <v>0</v>
       </c>
       <c r="AA8" s="3" t="s">
         <v>3</v>
@@ -860,8 +864,11 @@
       <c r="AC8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -943,8 +950,11 @@
       <c r="AC9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1026,8 +1036,11 @@
       <c r="AC10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1057,8 +1070,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1140,8 +1154,11 @@
       <c r="AC12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1223,73 +1240,76 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>17100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-900</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>1000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1306,35 +1326,38 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="E15" s="3">
         <v>6900</v>
       </c>
       <c r="F15" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G15" s="3">
         <v>6700</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
         <v>400</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1350,29 +1373,29 @@
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="3">
         <v>300</v>
-      </c>
-      <c r="R15" s="3">
-        <v>100</v>
       </c>
       <c r="S15" s="3">
         <v>100</v>
       </c>
       <c r="T15" s="3">
+        <v>100</v>
+      </c>
+      <c r="U15" s="3">
         <v>200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>100</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>3</v>
+      <c r="X15" s="3">
+        <v>0</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>3</v>
@@ -1389,8 +1412,11 @@
       <c r="AC15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1417,79 +1443,80 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>110300</v>
+      </c>
+      <c r="E17" s="3">
         <v>141100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>107200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>94300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>98900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>79600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>27600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>5500</v>
       </c>
       <c r="P17" s="3">
         <v>5500</v>
       </c>
       <c r="Q17" s="3">
-        <v>4100</v>
+        <v>5500</v>
       </c>
       <c r="R17" s="3">
         <v>4100</v>
       </c>
       <c r="S17" s="3">
-        <v>4600</v>
+        <v>4100</v>
       </c>
       <c r="T17" s="3">
         <v>4600</v>
       </c>
       <c r="U17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="V17" s="3">
         <v>4300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2100</v>
       </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>3</v>
+      <c r="Z17" s="3">
+        <v>0</v>
       </c>
       <c r="AA17" s="3" t="s">
         <v>3</v>
@@ -1500,79 +1527,82 @@
       <c r="AC17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-37300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>100</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>3</v>
+      <c r="Z18" s="3">
+        <v>0</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>3</v>
@@ -1583,8 +1613,11 @@
       <c r="AC18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1614,79 +1647,80 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-19500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-18900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-16900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-17700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-14400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>3</v>
+      <c r="Z20" s="3">
+        <v>0</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>3</v>
@@ -1697,74 +1731,77 @@
       <c r="AC20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-49800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-13500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-12700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-14400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-9500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>900</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1780,8 +1817,11 @@
       <c r="AC21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1828,29 +1868,29 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>200</v>
       </c>
       <c r="W22" s="3">
         <v>200</v>
       </c>
       <c r="X22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y22" s="3">
         <v>400</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1863,79 +1903,82 @@
       <c r="AC22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-56800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-22900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-19200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-19800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>800</v>
       </c>
       <c r="R23" s="3">
         <v>800</v>
       </c>
       <c r="S23" s="3">
+        <v>800</v>
+      </c>
+      <c r="T23" s="3">
         <v>-1400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="3" t="s">
-        <v>3</v>
+      <c r="Z23" s="3">
+        <v>0</v>
       </c>
       <c r="AA23" s="3" t="s">
         <v>3</v>
@@ -1946,79 +1989,82 @@
       <c r="AC23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E24" s="3">
         <v>14000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2300</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-100</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="3" t="s">
-        <v>3</v>
+      <c r="Z24" s="3">
+        <v>0</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>3</v>
@@ -2029,8 +2075,11 @@
       <c r="AC24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2112,79 +2161,82 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-70800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-23400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-23800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-19600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2700</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="3" t="s">
-        <v>3</v>
+      <c r="Z26" s="3">
+        <v>0</v>
       </c>
       <c r="AA26" s="3" t="s">
         <v>3</v>
@@ -2195,79 +2247,82 @@
       <c r="AC26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-70800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-23400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-23800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-19600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2700</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="3" t="s">
-        <v>3</v>
+      <c r="Z27" s="3">
+        <v>0</v>
       </c>
       <c r="AA27" s="3" t="s">
         <v>3</v>
@@ -2278,8 +2333,11 @@
       <c r="AC27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2361,8 +2419,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2408,8 +2469,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>3</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>3</v>
@@ -2426,12 +2487,12 @@
       <c r="W29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-500</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2444,8 +2505,11 @@
       <c r="AC29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2527,8 +2591,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2610,79 +2677,82 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E32" s="3">
         <v>19500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>18900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>16900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>17700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>14400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3" t="s">
-        <v>3</v>
+      <c r="Z32" s="3">
+        <v>0</v>
       </c>
       <c r="AA32" s="3" t="s">
         <v>3</v>
@@ -2693,79 +2763,82 @@
       <c r="AC32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-70800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-23400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-23800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-19600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2700</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="3" t="s">
-        <v>3</v>
+      <c r="Z33" s="3">
+        <v>0</v>
       </c>
       <c r="AA33" s="3" t="s">
         <v>3</v>
@@ -2776,8 +2849,11 @@
       <c r="AC33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2859,79 +2935,82 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-70800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-23400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-23800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-19600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2700</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="3" t="s">
-        <v>3</v>
+      <c r="Z35" s="3">
+        <v>0</v>
       </c>
       <c r="AA35" s="3" t="s">
         <v>3</v>
@@ -2942,85 +3021,88 @@
       <c r="AC35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45011</v>
+      </c>
+      <c r="E38" s="2">
         <v>44920</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44829</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44647</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44556</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44374</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44283</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44192</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44101</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44010</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43919</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43828</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43737</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43464</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43282</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43191</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43002</v>
       </c>
-      <c r="Z38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA38" s="2" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3112,11 @@
       <c r="AC38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3061,8 +3146,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3092,76 +3178,77 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E41" s="3">
         <v>28700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>23900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>29000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>56700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>23600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>48100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4600</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
-      </c>
-      <c r="S41" s="3">
-        <v>700</v>
       </c>
       <c r="T41" s="3">
         <v>700</v>
       </c>
       <c r="U41" s="3">
+        <v>700</v>
+      </c>
+      <c r="V41" s="3">
         <v>1900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1000</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>3</v>
+      <c r="Y41" s="3">
+        <v>0</v>
       </c>
       <c r="Z41" s="3" t="s">
         <v>3</v>
@@ -3175,8 +3262,11 @@
       <c r="AC41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3258,77 +3348,80 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E43" s="3">
         <v>23900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>42100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>35900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>18200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>20300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>14500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1000</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3341,34 +3434,37 @@
       <c r="AC43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E44" s="3">
         <v>6900</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3">
         <v>5900</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -3424,76 +3520,79 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E45" s="3">
         <v>36200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>43200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>41400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>50000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>36400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>25400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>400</v>
-      </c>
-      <c r="W45" s="3">
-        <v>200</v>
       </c>
       <c r="X45" s="3">
         <v>200</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>3</v>
+      <c r="Y45" s="3">
+        <v>200</v>
       </c>
       <c r="Z45" s="3" t="s">
         <v>3</v>
@@ -3507,77 +3606,80 @@
       <c r="AC45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>116900</v>
+      </c>
+      <c r="E46" s="3">
         <v>95700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>109300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>92800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>97200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>119000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>63500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>68200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>31200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1200</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3590,31 +3692,34 @@
       <c r="AC46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
         <v>1300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2100</v>
-      </c>
-      <c r="J47" s="3">
-        <v>1600</v>
       </c>
       <c r="K47" s="3">
         <v>1600</v>
@@ -3623,44 +3728,44 @@
         <v>1600</v>
       </c>
       <c r="M47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N47" s="3">
         <v>40300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>36300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>33700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>27800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>24800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>22200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>18000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>15700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>15500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>9200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>9100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>8300</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3673,61 +3778,64 @@
       <c r="AC47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>178600</v>
+      </c>
+      <c r="E48" s="3">
         <v>180300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>180100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>179000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>178200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>179100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>22800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1000</v>
-      </c>
-      <c r="R48" s="3">
-        <v>1100</v>
       </c>
       <c r="S48" s="3">
         <v>1100</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
+      <c r="T48" s="3">
+        <v>1100</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
@@ -3738,8 +3846,8 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X48" s="3">
-        <v>0</v>
+      <c r="X48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y48" s="3">
         <v>0</v>
@@ -3756,77 +3864,80 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>914800</v>
+      </c>
+      <c r="E49" s="3">
         <v>918600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>936800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>943400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>944200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>947900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>508500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>56700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>57000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>58600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>72100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>37000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>40400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>40600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>42000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>42200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>33600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>33700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>30000</v>
-      </c>
-      <c r="V49" s="3">
-        <v>18300</v>
       </c>
       <c r="W49" s="3">
         <v>18300</v>
       </c>
       <c r="X49" s="3">
+        <v>18300</v>
+      </c>
+      <c r="Y49" s="3">
         <v>18400</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3839,8 +3950,11 @@
       <c r="AC49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3922,8 +4036,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4005,77 +4122,80 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E52" s="3">
         <v>18700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>21700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>24000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>22900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>37800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>33600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>32000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5000</v>
-      </c>
-      <c r="U52" s="3">
-        <v>2200</v>
       </c>
       <c r="V52" s="3">
         <v>2200</v>
       </c>
       <c r="W52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="X52" s="3">
         <v>2000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1400</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
@@ -4088,8 +4208,11 @@
       <c r="AC52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4171,77 +4294,80 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1229500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1213300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1244200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1232500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1244800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1270000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>619800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>169200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>118100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>121100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>149600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>90900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>92200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>82600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>79600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>78200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>60400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>58000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>52600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>32500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>30900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>29200</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4254,8 +4380,11 @@
       <c r="AC54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4285,8 +4414,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4316,77 +4446,78 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E57" s="3">
         <v>18300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>21000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>23600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>23500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>27500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2400</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4399,71 +4530,74 @@
       <c r="AC57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E58" s="3">
         <v>53600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>22100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>19300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>700</v>
       </c>
       <c r="O58" s="3">
         <v>700</v>
       </c>
       <c r="P58" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q58" s="3">
         <v>24500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>24400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>23800</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U58" s="3">
         <v>15400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3000</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4482,77 +4616,80 @@
       <c r="AC58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E59" s="3">
         <v>195100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>242500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>231400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>236400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>233700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>48800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>43800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>45100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>45200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>22100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7800</v>
-      </c>
-      <c r="U59" s="3">
-        <v>4800</v>
       </c>
       <c r="V59" s="3">
         <v>4800</v>
       </c>
       <c r="W59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="X59" s="3">
         <v>6400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4300</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4565,77 +4702,80 @@
       <c r="AC59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>245700</v>
+      </c>
+      <c r="E60" s="3">
         <v>267000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>266300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>256200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>261900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>198500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>62200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>53200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>75900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>73200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>31900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>21200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>20300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>45600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>42700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>42000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>27600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>10200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6700</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4648,77 +4788,80 @@
       <c r="AC60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1020400</v>
+      </c>
+      <c r="E61" s="3">
         <v>958600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>938100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>908600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>907100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>904300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>485500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>146100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>71500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>73900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>86400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>59400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>57900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>20500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>34000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>14200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>29100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>17500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>18100</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
@@ -4731,46 +4874,49 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>157200</v>
+      </c>
+      <c r="E62" s="3">
         <v>146800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>126300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>128800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>126900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>124500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>15000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13900</v>
-      </c>
-      <c r="O62" s="3">
-        <v>11000</v>
       </c>
       <c r="P62" s="3">
         <v>11000</v>
@@ -4779,29 +4925,29 @@
         <v>11000</v>
       </c>
       <c r="R62" s="3">
+        <v>11000</v>
+      </c>
+      <c r="S62" s="3">
         <v>11600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>10400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>6800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>5400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2400</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4814,8 +4960,11 @@
       <c r="AC62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4897,8 +5046,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4980,8 +5132,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5063,77 +5218,80 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1423400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1372500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1330700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1293600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1295900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1227200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>571900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>214400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>163700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>163000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>137100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>94500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>89200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>77200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>73400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>73300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>55200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>52200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>44100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>25900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>32200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>27200</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5146,8 +5304,11 @@
       <c r="AC66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5177,8 +5338,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5260,8 +5422,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5343,44 +5508,47 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E70" s="3">
         <v>45500</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>46600</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>48300</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>49900</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>120100</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>104700</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>29100</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>21300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>21800</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>13000</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -5426,8 +5594,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5509,77 +5680,80 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-210800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-178700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-107900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-84400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-76200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-52500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-32900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-29300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-23300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-20900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5000</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-2400</v>
       </c>
       <c r="V72" s="3">
         <v>-2400</v>
       </c>
       <c r="W72" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="X72" s="3">
         <v>-4000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-600</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5592,8 +5766,11 @@
       <c r="AC72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5675,8 +5852,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5758,8 +5938,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5841,77 +6024,80 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-238000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-204700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-133100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-109400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-101000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-77300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-56800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-74300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-66800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-63700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2000</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5924,8 +6110,11 @@
       <c r="AC76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6007,85 +6196,88 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45011</v>
+      </c>
+      <c r="E80" s="2">
         <v>44920</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44829</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44647</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44556</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44374</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44283</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44192</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44101</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44010</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43919</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43828</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43737</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43464</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43282</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43191</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43002</v>
       </c>
-      <c r="Z80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA80" s="2" t="s">
         <v>3</v>
       </c>
@@ -6095,79 +6287,82 @@
       <c r="AC80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-70800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-23400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-23800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-19600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2700</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z81" s="3" t="s">
-        <v>3</v>
+      <c r="Z81" s="3">
+        <v>0</v>
       </c>
       <c r="AA81" s="3" t="s">
         <v>3</v>
@@ -6178,8 +6373,11 @@
       <c r="AC81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6209,31 +6407,32 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E83" s="3">
         <v>6900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>400</v>
       </c>
       <c r="K83" s="3">
         <v>400</v>
@@ -6242,40 +6441,40 @@
         <v>400</v>
       </c>
       <c r="M83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N83" s="3">
         <v>300</v>
       </c>
       <c r="O83" s="3">
+        <v>300</v>
+      </c>
+      <c r="P83" s="3">
         <v>200</v>
-      </c>
-      <c r="P83" s="3">
-        <v>300</v>
       </c>
       <c r="Q83" s="3">
         <v>300</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
       </c>
       <c r="T83" s="3">
+        <v>100</v>
+      </c>
+      <c r="U83" s="3">
         <v>200</v>
-      </c>
-      <c r="U83" s="3">
-        <v>100</v>
       </c>
       <c r="V83" s="3">
         <v>100</v>
       </c>
       <c r="W83" s="3">
-        <v>0</v>
-      </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
@@ -6292,8 +6491,11 @@
       <c r="AC83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6375,8 +6577,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6458,8 +6663,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6541,8 +6749,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6624,8 +6835,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6707,74 +6921,77 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-18300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>700</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
@@ -6790,8 +7007,11 @@
       <c r="AC89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6821,43 +7041,44 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-8100</v>
+        <v>-2000</v>
       </c>
       <c r="E91" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-5400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-200</v>
       </c>
       <c r="M91" s="3">
         <v>-200</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6878,17 +7099,17 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6904,8 +7125,11 @@
       <c r="AC91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6987,8 +7211,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7070,74 +7297,77 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E94" s="3">
         <v>1900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-377100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-346400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-26800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1500</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7700</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
@@ -7153,8 +7383,11 @@
       <c r="AC94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7184,8 +7417,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7196,7 +7430,7 @@
         <v>-2300</v>
       </c>
       <c r="F96" s="3">
-        <v>-2100</v>
+        <v>-2300</v>
       </c>
       <c r="G96" s="3">
         <v>-2100</v>
@@ -7208,17 +7442,17 @@
         <v>-2100</v>
       </c>
       <c r="J96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -7238,14 +7472,14 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-400</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
@@ -7267,8 +7501,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7350,8 +7587,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7433,8 +7673,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7516,74 +7759,77 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E100" s="3">
         <v>15500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>24400</v>
       </c>
-      <c r="F100" s="3">
-        <v>-5300</v>
-      </c>
       <c r="G100" s="3">
-        <v>-5900</v>
+        <v>-6700</v>
       </c>
       <c r="H100" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="I100" s="3">
         <v>428800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>335000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>52000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>42100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>12500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>7800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-700</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
@@ -7599,8 +7845,11 @@
       <c r="AC100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7682,73 +7931,76 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E102" s="3">
         <v>6700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-29100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-19400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>56400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-10500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>49100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>10800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-200</v>
       </c>
       <c r="R102" s="3">
         <v>-200</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-1200</v>
-      </c>
-      <c r="U102" s="3">
-        <v>900</v>
       </c>
       <c r="V102" s="3">
         <v>900</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
-      </c>
-      <c r="X102" s="3" t="s">
-        <v>3</v>
+        <v>900</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
       </c>
       <c r="Y102" s="3" t="s">
         <v>3</v>
@@ -7763,6 +8015,9 @@
         <v>3</v>
       </c>
       <c r="AC102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="92">
   <si>
     <t>FAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,114 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45102</v>
+      </c>
+      <c r="E7" s="2">
         <v>45011</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44920</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44829</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44647</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44556</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44374</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44283</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44192</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44101</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44010</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43919</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43828</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43737</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43464</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43282</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43191</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43002</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB7" s="2" t="s">
         <v>3</v>
       </c>
@@ -781,82 +782,85 @@
       <c r="AD7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>106800</v>
+      </c>
+      <c r="E8" s="3">
         <v>105700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>103800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>103200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>102800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>97400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>74200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>29800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2200</v>
       </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>3</v>
+      <c r="AA8" s="3">
+        <v>0</v>
       </c>
       <c r="AB8" s="3" t="s">
         <v>3</v>
@@ -867,8 +871,11 @@
       <c r="AD8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -953,8 +960,11 @@
       <c r="AD9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1039,8 +1049,11 @@
       <c r="AD10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1071,8 +1084,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1157,8 +1171,11 @@
       <c r="AD12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1243,8 +1260,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1252,67 +1272,67 @@
         <v>200</v>
       </c>
       <c r="E14" s="3">
+        <v>200</v>
+      </c>
+      <c r="F14" s="3">
         <v>17100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-900</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>1000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>100</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
@@ -1329,8 +1349,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1338,29 +1361,29 @@
         <v>7100</v>
       </c>
       <c r="E15" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="F15" s="3">
         <v>6900</v>
       </c>
       <c r="G15" s="3">
+        <v>6900</v>
+      </c>
+      <c r="H15" s="3">
         <v>6700</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
+      <c r="I15" s="3">
+        <v>6500</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3">
         <v>400</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1376,29 +1399,29 @@
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="3">
         <v>300</v>
-      </c>
-      <c r="S15" s="3">
-        <v>100</v>
       </c>
       <c r="T15" s="3">
         <v>100</v>
       </c>
       <c r="U15" s="3">
+        <v>100</v>
+      </c>
+      <c r="V15" s="3">
         <v>200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>100</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
       <c r="X15" s="3">
         <v>0</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>3</v>
+      <c r="Y15" s="3">
+        <v>0</v>
       </c>
       <c r="Z15" s="3" t="s">
         <v>3</v>
@@ -1415,8 +1438,11 @@
       <c r="AD15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1444,82 +1470,83 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>92600</v>
+      </c>
+      <c r="E17" s="3">
         <v>110300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>141100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>107200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>94300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>98900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>79600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>27600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>5500</v>
       </c>
       <c r="Q17" s="3">
         <v>5500</v>
       </c>
       <c r="R17" s="3">
-        <v>4100</v>
+        <v>5500</v>
       </c>
       <c r="S17" s="3">
         <v>4100</v>
       </c>
       <c r="T17" s="3">
-        <v>4600</v>
+        <v>4100</v>
       </c>
       <c r="U17" s="3">
         <v>4600</v>
       </c>
       <c r="V17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="W17" s="3">
         <v>4300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2100</v>
       </c>
-      <c r="Z17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="3" t="s">
-        <v>3</v>
+      <c r="AA17" s="3">
+        <v>0</v>
       </c>
       <c r="AB17" s="3" t="s">
         <v>3</v>
@@ -1530,82 +1557,85 @@
       <c r="AD17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-37300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>100</v>
       </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="3" t="s">
-        <v>3</v>
+      <c r="AA18" s="3">
+        <v>0</v>
       </c>
       <c r="AB18" s="3" t="s">
         <v>3</v>
@@ -1616,8 +1646,11 @@
       <c r="AD18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1648,82 +1681,83 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-24900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-19500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-18900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-16900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-17700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-14400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-1000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-400</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>3</v>
+      <c r="AA20" s="3">
+        <v>0</v>
       </c>
       <c r="AB20" s="3" t="s">
         <v>3</v>
@@ -1734,77 +1768,80 @@
       <c r="AD20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-22500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-49800</v>
       </c>
-      <c r="F21" s="3">
-        <v>-13500</v>
-      </c>
       <c r="G21" s="3">
-        <v>-4400</v>
+        <v>-16000</v>
       </c>
       <c r="H21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I21" s="3">
         <v>-12700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-14400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-9500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>900</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1820,8 +1857,11 @@
       <c r="AD21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1871,29 +1911,29 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>200</v>
       </c>
       <c r="X22" s="3">
         <v>200</v>
       </c>
       <c r="Y22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z22" s="3">
         <v>400</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,82 +1946,85 @@
       <c r="AD22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-29600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-56800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-22900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-19200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-19800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
-      </c>
-      <c r="R23" s="3">
-        <v>800</v>
       </c>
       <c r="S23" s="3">
         <v>800</v>
       </c>
       <c r="T23" s="3">
+        <v>800</v>
+      </c>
+      <c r="U23" s="3">
         <v>-1400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="3" t="s">
-        <v>3</v>
+      <c r="AA23" s="3">
+        <v>0</v>
       </c>
       <c r="AB23" s="3" t="s">
         <v>3</v>
@@ -1992,82 +2035,85 @@
       <c r="AD23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
         <v>2500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>14000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2300</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-100</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="3" t="s">
-        <v>3</v>
+      <c r="AA24" s="3">
+        <v>0</v>
       </c>
       <c r="AB24" s="3" t="s">
         <v>3</v>
@@ -2078,8 +2124,11 @@
       <c r="AD24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2164,82 +2213,85 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-32100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-70800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-23400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-23800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-19600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2700</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="3" t="s">
-        <v>3</v>
+      <c r="AA26" s="3">
+        <v>0</v>
       </c>
       <c r="AB26" s="3" t="s">
         <v>3</v>
@@ -2250,82 +2302,85 @@
       <c r="AD26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-32100</v>
+        <v>-8700</v>
       </c>
       <c r="E27" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-70800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-23400</v>
       </c>
-      <c r="G27" s="3">
-        <v>-8200</v>
-      </c>
       <c r="H27" s="3">
-        <v>-23800</v>
+        <v>-9800</v>
       </c>
       <c r="I27" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-19600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2700</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="3" t="s">
-        <v>3</v>
+      <c r="AA27" s="3">
+        <v>0</v>
       </c>
       <c r="AB27" s="3" t="s">
         <v>3</v>
@@ -2336,8 +2391,11 @@
       <c r="AD27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2422,8 +2480,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2472,8 +2533,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>3</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>3</v>
@@ -2490,12 +2551,12 @@
       <c r="X29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-500</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2508,8 +2569,11 @@
       <c r="AD29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2594,8 +2658,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2680,82 +2747,85 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E32" s="3">
         <v>24900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>19500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>18900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>16900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>17700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>14400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>1000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>400</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="3" t="s">
-        <v>3</v>
+      <c r="AA32" s="3">
+        <v>0</v>
       </c>
       <c r="AB32" s="3" t="s">
         <v>3</v>
@@ -2766,82 +2836,85 @@
       <c r="AD32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-32100</v>
+        <v>-8700</v>
       </c>
       <c r="E33" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-70800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-23400</v>
       </c>
-      <c r="G33" s="3">
-        <v>-8200</v>
-      </c>
       <c r="H33" s="3">
-        <v>-23800</v>
+        <v>-9800</v>
       </c>
       <c r="I33" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="J33" s="3">
         <v>-19600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2700</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-600</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="3" t="s">
-        <v>3</v>
+      <c r="AA33" s="3">
+        <v>0</v>
       </c>
       <c r="AB33" s="3" t="s">
         <v>3</v>
@@ -2852,8 +2925,11 @@
       <c r="AD33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2938,82 +3014,85 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-32100</v>
+        <v>-8700</v>
       </c>
       <c r="E35" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-70800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-23400</v>
       </c>
-      <c r="G35" s="3">
-        <v>-8200</v>
-      </c>
       <c r="H35" s="3">
-        <v>-23800</v>
+        <v>-9800</v>
       </c>
       <c r="I35" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="J35" s="3">
         <v>-19600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2700</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-600</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="3" t="s">
-        <v>3</v>
+      <c r="AA35" s="3">
+        <v>0</v>
       </c>
       <c r="AB35" s="3" t="s">
         <v>3</v>
@@ -3024,88 +3103,91 @@
       <c r="AD35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45102</v>
+      </c>
+      <c r="E38" s="2">
         <v>45011</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44920</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44829</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44647</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44556</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44374</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44283</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44192</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44101</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44010</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43919</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43828</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43737</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43464</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43282</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43191</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43002</v>
       </c>
-      <c r="AA38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB38" s="2" t="s">
         <v>3</v>
       </c>
@@ -3115,8 +3197,11 @@
       <c r="AD38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3147,8 +3232,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3179,79 +3265,80 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E41" s="3">
         <v>46200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>28700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>29000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>56700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>23600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>48100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4600</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
-      </c>
-      <c r="T41" s="3">
-        <v>700</v>
       </c>
       <c r="U41" s="3">
         <v>700</v>
       </c>
       <c r="V41" s="3">
+        <v>700</v>
+      </c>
+      <c r="W41" s="3">
         <v>1900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1000</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>3</v>
+      <c r="Z41" s="3">
+        <v>0</v>
       </c>
       <c r="AA41" s="3" t="s">
         <v>3</v>
@@ -3265,8 +3352,11 @@
       <c r="AD41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3351,80 +3441,83 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E43" s="3">
         <v>26900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>23900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>42100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>35900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>18200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>20300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>14500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1000</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3437,37 +3530,40 @@
       <c r="AD43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E44" s="3">
         <v>6800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6900</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3">
         <v>5900</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -3523,79 +3619,82 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E45" s="3">
         <v>37000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>36200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>43200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>41400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>50000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>36400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>25400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>400</v>
-      </c>
-      <c r="X45" s="3">
-        <v>200</v>
       </c>
       <c r="Y45" s="3">
         <v>200</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>3</v>
+      <c r="Z45" s="3">
+        <v>200</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>3</v>
@@ -3609,80 +3708,83 @@
       <c r="AD45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>104300</v>
+      </c>
+      <c r="E46" s="3">
         <v>116900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>95700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>109300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>92800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>97200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>119000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>63500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>68200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>24400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>31200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>13900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1200</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3695,8 +3797,11 @@
       <c r="AD46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3706,23 +3811,23 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>1300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2100</v>
-      </c>
-      <c r="K47" s="3">
-        <v>1600</v>
       </c>
       <c r="L47" s="3">
         <v>1600</v>
@@ -3731,44 +3836,44 @@
         <v>1600</v>
       </c>
       <c r="N47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O47" s="3">
         <v>40300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>36300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>33700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>27800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>24800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>22200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>18000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>15700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>15500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>9200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>9100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>8300</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3781,64 +3886,67 @@
       <c r="AD47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>181200</v>
+      </c>
+      <c r="E48" s="3">
         <v>178600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>180300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>180100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>179000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>178200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>179100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>22800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1000</v>
-      </c>
-      <c r="S48" s="3">
-        <v>1100</v>
       </c>
       <c r="T48" s="3">
         <v>1100</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
+      <c r="U48" s="3">
+        <v>1100</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
@@ -3849,8 +3957,8 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y48" s="3">
-        <v>0</v>
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z48" s="3">
         <v>0</v>
@@ -3867,80 +3975,83 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>911000</v>
+      </c>
+      <c r="E49" s="3">
         <v>914800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>918600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>936800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>943400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>944200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>947900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>508500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>56700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>57000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>58600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>72100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>37000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>40400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>40600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>42000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>42200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>33600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>33700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>30000</v>
-      </c>
-      <c r="W49" s="3">
-        <v>18300</v>
       </c>
       <c r="X49" s="3">
         <v>18300</v>
       </c>
       <c r="Y49" s="3">
+        <v>18300</v>
+      </c>
+      <c r="Z49" s="3">
         <v>18400</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3953,8 +4064,11 @@
       <c r="AD49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4039,8 +4153,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4125,80 +4242,83 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E52" s="3">
         <v>19100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>21700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>24000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>22900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>37800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>33600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>32000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5000</v>
-      </c>
-      <c r="V52" s="3">
-        <v>2200</v>
       </c>
       <c r="W52" s="3">
         <v>2200</v>
       </c>
       <c r="X52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Y52" s="3">
         <v>2000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1400</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA52" s="3" t="s">
         <v>3</v>
       </c>
@@ -4211,8 +4331,11 @@
       <c r="AD52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4297,80 +4420,83 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1215800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1229500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1213300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1244200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1232500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1244800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1270000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>619800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>169200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>118100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>121100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>149600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>90900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>92200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>82600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>79600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>78200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>60400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>58000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>52600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>32500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>30900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>29200</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4383,8 +4509,11 @@
       <c r="AD54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4415,8 +4544,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4447,80 +4577,81 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E57" s="3">
         <v>20100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>18300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>21000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>23600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>23500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>27500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>12900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2400</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4533,74 +4664,77 @@
       <c r="AD57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E58" s="3">
         <v>28600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>53600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>22100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>19300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1600</v>
-      </c>
-      <c r="O58" s="3">
-        <v>700</v>
       </c>
       <c r="P58" s="3">
         <v>700</v>
       </c>
       <c r="Q58" s="3">
+        <v>700</v>
+      </c>
+      <c r="R58" s="3">
         <v>24500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>24400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>23800</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V58" s="3">
         <v>15400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3000</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4619,80 +4753,83 @@
       <c r="AD58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>195300</v>
+      </c>
+      <c r="E59" s="3">
         <v>197000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>195100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>242500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>231400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>236400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>233700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>48800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>43800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>45100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>45200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>22100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7800</v>
-      </c>
-      <c r="V59" s="3">
-        <v>4800</v>
       </c>
       <c r="W59" s="3">
         <v>4800</v>
       </c>
       <c r="X59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="Y59" s="3">
         <v>6400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4300</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4705,80 +4842,83 @@
       <c r="AD59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>251400</v>
+      </c>
+      <c r="E60" s="3">
         <v>245700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>267000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>266300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>256200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>261900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>198500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>62200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>53200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>75900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>73200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>31900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>21200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>20300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>45600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>42700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>42000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>27600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>10200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>9200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6700</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4791,80 +4931,83 @@
       <c r="AD60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1018500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1020400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>958600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>938100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>908600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>907100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>904300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>485500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>146100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>71500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>73900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>86400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>59400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>57900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>20500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>19800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>34000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>14200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>29100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>17500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>18100</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
@@ -4877,49 +5020,52 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>149100</v>
+      </c>
+      <c r="E62" s="3">
         <v>157200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>146800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>126300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>128800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>126900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>124500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13900</v>
-      </c>
-      <c r="P62" s="3">
-        <v>11000</v>
       </c>
       <c r="Q62" s="3">
         <v>11000</v>
@@ -4928,29 +5074,29 @@
         <v>11000</v>
       </c>
       <c r="S62" s="3">
+        <v>11000</v>
+      </c>
+      <c r="T62" s="3">
         <v>11600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>10400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>6800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>5800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>5400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2400</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4963,8 +5109,11 @@
       <c r="AD62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5049,8 +5198,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5135,8 +5287,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5221,80 +5376,83 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1419000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1423400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1372500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1330700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1293600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1295900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1227200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>571900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>214400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>163700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>163000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>137100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>94500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>89200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>77200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>73400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>73300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>55200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>52200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>44100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>25900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>32200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>27200</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5307,8 +5465,11 @@
       <c r="AD66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5339,8 +5500,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5425,8 +5587,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5511,47 +5676,50 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E70" s="3">
         <v>44100</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>45500</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>46600</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>48300</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>49900</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>120100</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>104700</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>29100</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>21300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>21800</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>13000</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -5597,8 +5765,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5683,80 +5854,83 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-217900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-210800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-178700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-107900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-84400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-76200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-52500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-32900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-29300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-23300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-20900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5000</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-2400</v>
       </c>
       <c r="W72" s="3">
         <v>-2400</v>
       </c>
       <c r="X72" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-600</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5769,8 +5943,11 @@
       <c r="AD72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5855,8 +6032,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5941,8 +6121,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6027,80 +6210,83 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-246800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-238000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-204700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-133100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-109400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-101000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-77300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-56800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-74300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-66800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-63700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2000</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
@@ -6113,8 +6299,11 @@
       <c r="AD76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6199,88 +6388,91 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45102</v>
+      </c>
+      <c r="E80" s="2">
         <v>45011</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44920</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44829</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44647</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44556</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44374</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44283</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44192</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44101</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44010</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43919</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43828</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43737</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43464</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43282</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43191</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43002</v>
       </c>
-      <c r="AA80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB80" s="2" t="s">
         <v>3</v>
       </c>
@@ -6290,82 +6482,85 @@
       <c r="AD80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-32100</v>
+        <v>-8700</v>
       </c>
       <c r="E81" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-70800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-23400</v>
       </c>
-      <c r="G81" s="3">
-        <v>-8200</v>
-      </c>
       <c r="H81" s="3">
-        <v>-23800</v>
+        <v>-9800</v>
       </c>
       <c r="I81" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="J81" s="3">
         <v>-19600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2700</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-600</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA81" s="3" t="s">
-        <v>3</v>
+      <c r="AA81" s="3">
+        <v>0</v>
       </c>
       <c r="AB81" s="3" t="s">
         <v>3</v>
@@ -6376,8 +6571,11 @@
       <c r="AD81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6408,8 +6606,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6417,25 +6616,25 @@
         <v>7100</v>
       </c>
       <c r="E83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F83" s="3">
         <v>6900</v>
       </c>
-      <c r="F83" s="3">
-        <v>9400</v>
-      </c>
       <c r="G83" s="3">
-        <v>4100</v>
+        <v>6900</v>
       </c>
       <c r="H83" s="3">
         <v>6600</v>
       </c>
       <c r="I83" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J83" s="3">
         <v>5400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>400</v>
       </c>
       <c r="L83" s="3">
         <v>400</v>
@@ -6444,40 +6643,40 @@
         <v>400</v>
       </c>
       <c r="N83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O83" s="3">
         <v>300</v>
       </c>
       <c r="P83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q83" s="3">
         <v>200</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>300</v>
       </c>
       <c r="R83" s="3">
         <v>300</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
       </c>
       <c r="U83" s="3">
+        <v>100</v>
+      </c>
+      <c r="V83" s="3">
         <v>200</v>
-      </c>
-      <c r="V83" s="3">
-        <v>100</v>
       </c>
       <c r="W83" s="3">
         <v>100</v>
       </c>
       <c r="X83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
       </c>
       <c r="Z83" s="3" t="s">
         <v>3</v>
@@ -6494,8 +6693,11 @@
       <c r="AD83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6580,8 +6782,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6666,8 +6871,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6752,8 +6960,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6838,8 +7049,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6924,77 +7138,80 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-18300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>700</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
@@ -7010,8 +7227,11 @@
       <c r="AD89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7042,46 +7262,47 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9800</v>
       </c>
-      <c r="F91" s="3">
-        <v>-5400</v>
-      </c>
       <c r="G91" s="3">
-        <v>-4200</v>
+        <v>-2800</v>
       </c>
       <c r="H91" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="I91" s="3">
         <v>-3800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-200</v>
       </c>
       <c r="N91" s="3">
         <v>-200</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -7102,17 +7323,17 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
@@ -7128,8 +7349,11 @@
       <c r="AD91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7214,8 +7438,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7300,77 +7527,80 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-377100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-346400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-26800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1500</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-7700</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
@@ -7386,8 +7616,11 @@
       <c r="AD94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7418,8 +7651,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7433,7 +7667,7 @@
         <v>-2300</v>
       </c>
       <c r="G96" s="3">
-        <v>-2100</v>
+        <v>-2300</v>
       </c>
       <c r="H96" s="3">
         <v>-2100</v>
@@ -7445,17 +7679,17 @@
         <v>-2100</v>
       </c>
       <c r="K96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="L96" s="3">
         <v>-2600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -7475,14 +7709,14 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-400</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
@@ -7504,8 +7738,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7590,8 +7827,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7676,8 +7916,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7762,77 +8005,80 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>32200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>15500</v>
       </c>
-      <c r="F100" s="3">
-        <v>24400</v>
-      </c>
       <c r="G100" s="3">
-        <v>-6700</v>
+        <v>21600</v>
       </c>
       <c r="H100" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I100" s="3">
         <v>-4500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>428800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>335000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>52000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>42100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>12500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>7800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-700</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
@@ -7848,8 +8094,11 @@
       <c r="AD100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7934,76 +8183,79 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E102" s="3">
         <v>18500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>10700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-29100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-19400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>56400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-10500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>49100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>10800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-200</v>
       </c>
       <c r="S102" s="3">
         <v>-200</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-1200</v>
-      </c>
-      <c r="V102" s="3">
-        <v>900</v>
       </c>
       <c r="W102" s="3">
         <v>900</v>
       </c>
       <c r="X102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y102" s="3" t="s">
-        <v>3</v>
+        <v>900</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
       </c>
       <c r="Z102" s="3" t="s">
         <v>3</v>
@@ -8018,6 +8270,9 @@
         <v>3</v>
       </c>
       <c r="AD102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="92">
   <si>
     <t>FAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,117 +665,118 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45193</v>
+      </c>
+      <c r="E7" s="2">
         <v>45102</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45011</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44920</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44829</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44647</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44556</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44374</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44283</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44192</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44101</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44010</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43919</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43828</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43737</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43464</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43282</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43191</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43002</v>
       </c>
-      <c r="AB7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AC7" s="2" t="s">
         <v>3</v>
       </c>
@@ -785,85 +786,88 @@
       <c r="AE7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>109400</v>
+      </c>
+      <c r="E8" s="3">
         <v>106800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>105700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>103800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>103200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>102800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>97400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>74200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>29800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2200</v>
       </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>3</v>
+      <c r="AB8" s="3">
+        <v>0</v>
       </c>
       <c r="AC8" s="3" t="s">
         <v>3</v>
@@ -874,8 +878,11 @@
       <c r="AE8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -963,8 +970,11 @@
       <c r="AE9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1052,8 +1062,11 @@
       <c r="AE10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1085,8 +1098,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1174,8 +1188,11 @@
       <c r="AE12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1263,79 +1280,82 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>200</v>
+        <v>3100</v>
       </c>
       <c r="E14" s="3">
         <v>200</v>
       </c>
       <c r="F14" s="3">
+        <v>200</v>
+      </c>
+      <c r="G14" s="3">
         <v>17100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-900</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>1000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>100</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
@@ -1352,41 +1372,44 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="E15" s="3">
         <v>7100</v>
       </c>
       <c r="F15" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="G15" s="3">
         <v>6900</v>
       </c>
       <c r="H15" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I15" s="3">
         <v>6700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>6500</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3">
         <v>400</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1402,29 +1425,29 @@
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" s="3">
         <v>300</v>
-      </c>
-      <c r="T15" s="3">
-        <v>100</v>
       </c>
       <c r="U15" s="3">
         <v>100</v>
       </c>
       <c r="V15" s="3">
+        <v>100</v>
+      </c>
+      <c r="W15" s="3">
         <v>200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>100</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>3</v>
+      <c r="Z15" s="3">
+        <v>0</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>3</v>
@@ -1441,8 +1464,11 @@
       <c r="AE15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1471,85 +1497,86 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>109900</v>
+      </c>
+      <c r="E17" s="3">
         <v>92600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>110300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>141100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>107200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>94300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>98900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>79600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>27600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>5500</v>
       </c>
       <c r="R17" s="3">
         <v>5500</v>
       </c>
       <c r="S17" s="3">
-        <v>4100</v>
+        <v>5500</v>
       </c>
       <c r="T17" s="3">
         <v>4100</v>
       </c>
       <c r="U17" s="3">
-        <v>4600</v>
+        <v>4100</v>
       </c>
       <c r="V17" s="3">
         <v>4600</v>
       </c>
       <c r="W17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="X17" s="3">
         <v>4300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2100</v>
       </c>
-      <c r="AA17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="3" t="s">
-        <v>3</v>
+      <c r="AB17" s="3">
+        <v>0</v>
       </c>
       <c r="AC17" s="3" t="s">
         <v>3</v>
@@ -1560,85 +1587,88 @@
       <c r="AE17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
         <v>14200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-37300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>100</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="3" t="s">
-        <v>3</v>
+      <c r="AB18" s="3">
+        <v>0</v>
       </c>
       <c r="AC18" s="3" t="s">
         <v>3</v>
@@ -1649,8 +1679,11 @@
       <c r="AE18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1682,85 +1715,86 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-19900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-24900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-19500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-18900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-16900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-17700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-14400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-1000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-400</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="3" t="s">
-        <v>3</v>
+      <c r="AB20" s="3">
+        <v>0</v>
       </c>
       <c r="AC20" s="3" t="s">
         <v>3</v>
@@ -1771,80 +1805,83 @@
       <c r="AE20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E21" s="3">
         <v>1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-22500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-49800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-16000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-12700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-14400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-9500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>900</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1860,8 +1897,11 @@
       <c r="AE21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1914,29 +1954,29 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1000</v>
-      </c>
-      <c r="X22" s="3">
-        <v>200</v>
       </c>
       <c r="Y22" s="3">
         <v>200</v>
       </c>
       <c r="Z22" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA22" s="3">
         <v>400</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1949,85 +1989,88 @@
       <c r="AE22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-29600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-56800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-22900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-19200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-19800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
-      </c>
-      <c r="S23" s="3">
-        <v>800</v>
       </c>
       <c r="T23" s="3">
         <v>800</v>
       </c>
       <c r="U23" s="3">
+        <v>800</v>
+      </c>
+      <c r="V23" s="3">
         <v>-1400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="3" t="s">
-        <v>3</v>
+      <c r="AB23" s="3">
+        <v>0</v>
       </c>
       <c r="AC23" s="3" t="s">
         <v>3</v>
@@ -2038,85 +2081,88 @@
       <c r="AE23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>14000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2300</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-100</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="3" t="s">
-        <v>3</v>
+      <c r="AB24" s="3">
+        <v>0</v>
       </c>
       <c r="AC24" s="3" t="s">
         <v>3</v>
@@ -2127,8 +2173,11 @@
       <c r="AE24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2216,85 +2265,88 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-32100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-70800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-23400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-23800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-19600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2700</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="3" t="s">
-        <v>3</v>
+      <c r="AB26" s="3">
+        <v>0</v>
       </c>
       <c r="AC26" s="3" t="s">
         <v>3</v>
@@ -2305,85 +2357,88 @@
       <c r="AE26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-33900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-70800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-23400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-25400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-19600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2700</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="3" t="s">
-        <v>3</v>
+      <c r="AB27" s="3">
+        <v>0</v>
       </c>
       <c r="AC27" s="3" t="s">
         <v>3</v>
@@ -2394,8 +2449,11 @@
       <c r="AE27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2483,8 +2541,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2536,8 +2597,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>3</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>3</v>
@@ -2554,12 +2615,12 @@
       <c r="Y29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-500</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2572,8 +2633,11 @@
       <c r="AE29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2661,8 +2725,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2750,85 +2817,88 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E32" s="3">
         <v>19900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>24900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>19500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>18900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>16900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>17700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>14400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>1000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>400</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="3" t="s">
-        <v>3</v>
+      <c r="AB32" s="3">
+        <v>0</v>
       </c>
       <c r="AC32" s="3" t="s">
         <v>3</v>
@@ -2839,85 +2909,88 @@
       <c r="AE32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-33900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-70800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-23400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-25400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-19600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2700</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-600</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="3" t="s">
-        <v>3</v>
+      <c r="AB33" s="3">
+        <v>0</v>
       </c>
       <c r="AC33" s="3" t="s">
         <v>3</v>
@@ -2928,8 +3001,11 @@
       <c r="AE33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3017,85 +3093,88 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-33900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-70800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-23400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-25400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-19600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2700</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-600</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="3" t="s">
-        <v>3</v>
+      <c r="AB35" s="3">
+        <v>0</v>
       </c>
       <c r="AC35" s="3" t="s">
         <v>3</v>
@@ -3106,91 +3185,94 @@
       <c r="AE35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45193</v>
+      </c>
+      <c r="E38" s="2">
         <v>45102</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45011</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44920</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44829</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44647</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44556</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44374</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44283</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44192</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44101</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44010</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43919</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43828</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43737</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43464</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43282</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43191</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43002</v>
       </c>
-      <c r="AB38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AC38" s="2" t="s">
         <v>3</v>
       </c>
@@ -3200,8 +3282,11 @@
       <c r="AE38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3233,8 +3318,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3266,82 +3352,83 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E41" s="3">
         <v>30600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>46200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>28700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>23900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>29000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>56700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>48100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4600</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
-      </c>
-      <c r="U41" s="3">
-        <v>700</v>
       </c>
       <c r="V41" s="3">
         <v>700</v>
       </c>
       <c r="W41" s="3">
+        <v>700</v>
+      </c>
+      <c r="X41" s="3">
         <v>1900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1000</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>3</v>
+      <c r="AA41" s="3">
+        <v>0</v>
       </c>
       <c r="AB41" s="3" t="s">
         <v>3</v>
@@ -3355,8 +3442,11 @@
       <c r="AE41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3444,83 +3534,86 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E43" s="3">
         <v>29000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>26900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>23900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>42100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>35900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>18200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>20300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1000</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3533,40 +3626,43 @@
       <c r="AE43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E44" s="3">
         <v>6300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6900</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K44" s="3">
         <v>5900</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -3622,82 +3718,85 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E45" s="3">
         <v>38500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>37000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>36200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>43200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>41400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>50000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>36400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>25400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>400</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>200</v>
       </c>
       <c r="Z45" s="3">
         <v>200</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>3</v>
+      <c r="AA45" s="3">
+        <v>200</v>
       </c>
       <c r="AB45" s="3" t="s">
         <v>3</v>
@@ -3711,83 +3810,86 @@
       <c r="AE45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>163100</v>
+      </c>
+      <c r="E46" s="3">
         <v>104300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>116900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>95700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>109300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>92800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>97200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>119000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>63500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>68200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>21700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>24400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>31200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1200</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3800,8 +3902,11 @@
       <c r="AE46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3814,23 +3919,23 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>1300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2100</v>
-      </c>
-      <c r="L47" s="3">
-        <v>1600</v>
       </c>
       <c r="M47" s="3">
         <v>1600</v>
@@ -3839,44 +3944,44 @@
         <v>1600</v>
       </c>
       <c r="O47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P47" s="3">
         <v>40300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>36300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>33700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>27800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>24800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>22200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>18000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>15700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>15500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>9200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>9100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>8300</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3889,67 +3994,70 @@
       <c r="AE47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>182900</v>
+      </c>
+      <c r="E48" s="3">
         <v>181200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>178600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>180300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>180100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>179000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>178200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>179100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1000</v>
-      </c>
-      <c r="T48" s="3">
-        <v>1100</v>
       </c>
       <c r="U48" s="3">
         <v>1100</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
+      <c r="V48" s="3">
+        <v>1100</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
@@ -3960,8 +4068,8 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z48" s="3">
-        <v>0</v>
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA48" s="3">
         <v>0</v>
@@ -3978,83 +4086,86 @@
       <c r="AE48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>908400</v>
+      </c>
+      <c r="E49" s="3">
         <v>911000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>914800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>918600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>936800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>943400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>944200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>947900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>508500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>56700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>57000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>58600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>72100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>37000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>40400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>40600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>42000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>42200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>33600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>33700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>30000</v>
-      </c>
-      <c r="X49" s="3">
-        <v>18300</v>
       </c>
       <c r="Y49" s="3">
         <v>18300</v>
       </c>
       <c r="Z49" s="3">
+        <v>18300</v>
+      </c>
+      <c r="AA49" s="3">
         <v>18400</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB49" s="3" t="s">
         <v>3</v>
       </c>
@@ -4067,8 +4178,11 @@
       <c r="AE49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4156,8 +4270,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4245,83 +4362,86 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E52" s="3">
         <v>19400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>21700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>24000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>22900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>37800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>33600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>32000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5000</v>
-      </c>
-      <c r="W52" s="3">
-        <v>2200</v>
       </c>
       <c r="X52" s="3">
         <v>2200</v>
       </c>
       <c r="Y52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Z52" s="3">
         <v>2000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1400</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB52" s="3" t="s">
         <v>3</v>
       </c>
@@ -4334,8 +4454,11 @@
       <c r="AE52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4423,83 +4546,86 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1275600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1215800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1229500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1213300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1244200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1232500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1244800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1270000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>619800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>169200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>118100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>121100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>149600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>90900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>92200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>82600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>79600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>78200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>60400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>58000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>52600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>32500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>30900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>29200</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4512,8 +4638,11 @@
       <c r="AE54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4545,8 +4674,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4578,83 +4708,84 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E57" s="3">
         <v>16300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>20100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>21000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>23600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>23500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>27500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2400</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4667,77 +4798,80 @@
       <c r="AE57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E58" s="3">
         <v>39800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>28600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>53600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>22100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>19300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1600</v>
-      </c>
-      <c r="P58" s="3">
-        <v>700</v>
       </c>
       <c r="Q58" s="3">
         <v>700</v>
       </c>
       <c r="R58" s="3">
+        <v>700</v>
+      </c>
+      <c r="S58" s="3">
         <v>24500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>24400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>23800</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W58" s="3">
         <v>15400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3000</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4756,83 +4890,86 @@
       <c r="AE58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>197700</v>
+      </c>
+      <c r="E59" s="3">
         <v>195300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>197000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>195100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>242500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>231400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>236400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>233700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>48800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>43800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>45100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>45200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>22100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7800</v>
-      </c>
-      <c r="W59" s="3">
-        <v>4800</v>
       </c>
       <c r="X59" s="3">
         <v>4800</v>
       </c>
       <c r="Y59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="Z59" s="3">
         <v>6400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4300</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4845,83 +4982,86 @@
       <c r="AE59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>265400</v>
+      </c>
+      <c r="E60" s="3">
         <v>251400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>245700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>267000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>266300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>256200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>261900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>198500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>62200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>53200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>75900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>73200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>31900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>21200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>20300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>45600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>42700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>42000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>11900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>27600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>10200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>9200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6700</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4934,83 +5074,86 @@
       <c r="AE60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1093800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1018500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1020400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>958600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>938100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>908600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>907100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>904300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>485500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>146100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>71500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>73900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>86400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>59400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>57900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>20500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>19700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>19800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>34000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>14200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>29100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>9900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>17500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>18100</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
@@ -5023,52 +5166,55 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>145100</v>
+      </c>
+      <c r="E62" s="3">
         <v>149100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>157200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>146800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>126300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>128800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>126900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>124500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13900</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>11000</v>
       </c>
       <c r="R62" s="3">
         <v>11000</v>
@@ -5077,29 +5223,29 @@
         <v>11000</v>
       </c>
       <c r="T62" s="3">
+        <v>11000</v>
+      </c>
+      <c r="U62" s="3">
         <v>11600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>10400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>6800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>5800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>5400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2400</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB62" s="3" t="s">
         <v>3</v>
       </c>
@@ -5112,8 +5258,11 @@
       <c r="AE62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5201,8 +5350,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5290,8 +5442,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5379,83 +5534,86 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1504300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1419000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1423400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1372500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1330700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1293600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1295900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1227200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>571900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>214400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>163700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>163000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>137100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>94500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>89200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>77200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>73400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>73300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>55200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>52200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>44100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>25900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>32200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>27200</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5468,8 +5626,11 @@
       <c r="AE66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5501,8 +5662,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5590,8 +5752,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5679,50 +5844,53 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E70" s="3">
         <v>43600</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>44100</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>45500</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>46600</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>48300</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>49900</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>120100</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>104700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>29100</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>21300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>21800</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>13000</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -5768,8 +5936,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5857,83 +6028,86 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-242500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-217900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-210800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-178700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-107900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-84400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-76200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-52500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-32900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-29300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-23300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-20900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-6200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-5000</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-2400</v>
       </c>
       <c r="X72" s="3">
         <v>-2400</v>
       </c>
       <c r="Y72" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-600</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5946,8 +6120,11 @@
       <c r="AE72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6035,8 +6212,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6124,8 +6304,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6213,83 +6396,86 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-272500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-246800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-238000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-204700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-133100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-109400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-101000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-77300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-56800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-74300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-66800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-63700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2000</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB76" s="3" t="s">
         <v>3</v>
       </c>
@@ -6302,8 +6488,11 @@
       <c r="AE76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6391,91 +6580,94 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45193</v>
+      </c>
+      <c r="E80" s="2">
         <v>45102</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45011</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44920</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44829</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44647</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44556</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44374</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44283</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44192</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44101</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44010</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43919</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43828</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43737</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43464</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43282</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43191</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43002</v>
       </c>
-      <c r="AB80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AC80" s="2" t="s">
         <v>3</v>
       </c>
@@ -6485,85 +6677,88 @@
       <c r="AE80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-33900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-70800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-23400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-25400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-19600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2700</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-600</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB81" s="3" t="s">
-        <v>3</v>
+      <c r="AB81" s="3">
+        <v>0</v>
       </c>
       <c r="AC81" s="3" t="s">
         <v>3</v>
@@ -6574,8 +6769,11 @@
       <c r="AE81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6607,37 +6805,38 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="E83" s="3">
         <v>7100</v>
       </c>
       <c r="F83" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="G83" s="3">
         <v>6900</v>
       </c>
       <c r="H83" s="3">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="I83" s="3">
         <v>6600</v>
       </c>
       <c r="J83" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K83" s="3">
         <v>5400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>400</v>
       </c>
       <c r="M83" s="3">
         <v>400</v>
@@ -6646,40 +6845,40 @@
         <v>400</v>
       </c>
       <c r="O83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P83" s="3">
         <v>300</v>
       </c>
       <c r="Q83" s="3">
+        <v>300</v>
+      </c>
+      <c r="R83" s="3">
         <v>200</v>
-      </c>
-      <c r="R83" s="3">
-        <v>300</v>
       </c>
       <c r="S83" s="3">
         <v>300</v>
       </c>
       <c r="T83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U83" s="3">
         <v>100</v>
       </c>
       <c r="V83" s="3">
+        <v>100</v>
+      </c>
+      <c r="W83" s="3">
         <v>200</v>
-      </c>
-      <c r="W83" s="3">
-        <v>100</v>
       </c>
       <c r="X83" s="3">
         <v>100</v>
       </c>
       <c r="Y83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>3</v>
@@ -6696,8 +6895,11 @@
       <c r="AE83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6785,8 +6987,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6874,8 +7079,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6963,8 +7171,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7052,8 +7263,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7141,80 +7355,83 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-18300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>700</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA89" s="3" t="s">
         <v>3</v>
       </c>
@@ -7230,8 +7447,11 @@
       <c r="AE89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7263,49 +7483,50 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-200</v>
       </c>
       <c r="O91" s="3">
         <v>-200</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -7326,17 +7547,17 @@
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA91" s="3" t="s">
         <v>3</v>
       </c>
@@ -7352,8 +7573,11 @@
       <c r="AE91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7441,8 +7665,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7530,80 +7757,83 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-377100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-346400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-26800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1500</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-7700</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA94" s="3" t="s">
         <v>3</v>
       </c>
@@ -7619,8 +7849,11 @@
       <c r="AE94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7652,8 +7885,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7670,7 +7904,7 @@
         <v>-2300</v>
       </c>
       <c r="H96" s="3">
-        <v>-2100</v>
+        <v>-2300</v>
       </c>
       <c r="I96" s="3">
         <v>-2100</v>
@@ -7682,17 +7916,17 @@
         <v>-2100</v>
       </c>
       <c r="L96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="M96" s="3">
         <v>-2600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -7712,14 +7946,14 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-400</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
@@ -7741,8 +7975,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7830,8 +8067,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7919,8 +8159,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8008,80 +8251,83 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>76300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>32200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>15500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>21600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>428800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>335000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>52000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>42100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>12500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>7800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-700</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA100" s="3" t="s">
         <v>3</v>
       </c>
@@ -8097,8 +8343,11 @@
       <c r="AE100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8186,79 +8435,82 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-15400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>18500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>10700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-29100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-19400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>56400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>49100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>10800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
-      </c>
-      <c r="S102" s="3">
-        <v>-200</v>
       </c>
       <c r="T102" s="3">
         <v>-200</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-1200</v>
-      </c>
-      <c r="W102" s="3">
-        <v>900</v>
       </c>
       <c r="X102" s="3">
         <v>900</v>
       </c>
       <c r="Y102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z102" s="3" t="s">
-        <v>3</v>
+        <v>900</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
       </c>
       <c r="AA102" s="3" t="s">
         <v>3</v>
@@ -8273,6 +8525,9 @@
         <v>3</v>
       </c>
       <c r="AE102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
